--- a/test/剧本空表格.xlsx
+++ b/test/剧本空表格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Excel2RpyScript\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Excel2RpyScript\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327D1685-CE0F-4A00-9666-3E55BBFF4F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE293DB4-17B6-4FEB-92A8-D1F3A328C75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
   <si>
     <t>角色</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -90,6 +90,10 @@
   </si>
   <si>
     <t>台词</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>选填语音文本</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -603,32 +607,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD215"/>
+  <dimension ref="A1:AE215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:R10"/>
+    <sheetView topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="18" width="8.88671875" style="1"/>
-    <col min="19" max="19" width="14.109375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="11.77734375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="10.21875" style="3" customWidth="1"/>
-    <col min="22" max="22" width="11.21875" style="3" customWidth="1"/>
-    <col min="23" max="23" width="11.77734375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" style="3" customWidth="1"/>
-    <col min="25" max="25" width="11.21875" style="3" customWidth="1"/>
-    <col min="26" max="26" width="11.33203125" style="3" customWidth="1"/>
-    <col min="27" max="28" width="11.5546875" style="3" customWidth="1"/>
-    <col min="29" max="29" width="10.33203125" style="3" customWidth="1"/>
-    <col min="30" max="30" width="15.109375" style="3" customWidth="1"/>
-    <col min="31" max="31" width="12.5546875" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="18" width="8.86328125" style="1"/>
+    <col min="19" max="19" width="18.53125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="22.53125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="11.796875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="10.19921875" style="3" customWidth="1"/>
+    <col min="23" max="23" width="11.19921875" style="3" customWidth="1"/>
+    <col min="24" max="24" width="11.796875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="11.19921875" style="3" customWidth="1"/>
+    <col min="27" max="27" width="11.33203125" style="3" customWidth="1"/>
+    <col min="28" max="29" width="11.53125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="10.33203125" style="3" customWidth="1"/>
+    <col min="31" max="31" width="15.1328125" style="3" customWidth="1"/>
+    <col min="32" max="32" width="12.53125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -649,7 +654,6 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
-      <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -661,8 +665,9 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE1" s="1"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -681,7 +686,6 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
-      <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -693,8 +697,9 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE2" s="1"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -713,7 +718,6 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
-      <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
@@ -725,8 +729,9 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE3" s="1"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -747,7 +752,6 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -759,8 +763,9 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE4" s="1"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -779,7 +784,6 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
@@ -791,8 +795,9 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
-    </row>
-    <row r="6" spans="1:30" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE5" s="1"/>
+    </row>
+    <row r="6" spans="1:31" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -812,43 +817,46 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="19.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -871,7 +879,6 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -883,8 +890,9 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
-    </row>
-    <row r="8" spans="1:30" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE7" s="1"/>
+    </row>
+    <row r="8" spans="1:31" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -904,7 +912,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:30" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -924,7 +932,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:30" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" ht="20.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -944,7 +952,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:30" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -964,7 +972,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:30" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -984,7 +992,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:30" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1004,7 +1012,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:30" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1024,7 +1032,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:30" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1044,7 +1052,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:30" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1064,7 +1072,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1084,7 +1092,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1104,7 +1112,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1124,7 +1132,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1144,7 +1152,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1164,7 +1172,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1184,7 +1192,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1204,7 +1212,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1224,7 +1232,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1244,7 +1252,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1264,7 +1272,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1284,7 +1292,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1304,7 +1312,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1324,7 +1332,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1344,7 +1352,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1364,7 +1372,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1384,7 +1392,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1404,7 +1412,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="2"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1424,7 +1432,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="2"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1444,7 +1452,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1464,7 +1472,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="2"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1484,7 +1492,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="2"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1504,7 +1512,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="2"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1524,7 +1532,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="2"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1544,7 +1552,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="2"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1564,7 +1572,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="2"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1584,7 +1592,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="2"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1604,7 +1612,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="2"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1624,7 +1632,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="2"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1644,7 +1652,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="2"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1664,7 +1672,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="2"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1684,7 +1692,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="2"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1704,7 +1712,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="2"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1724,7 +1732,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="2"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1744,7 +1752,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="2"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1764,7 +1772,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="2"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1784,7 +1792,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="2"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1804,7 +1812,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="2"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1824,7 +1832,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="2"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1844,7 +1852,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="2"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1864,7 +1872,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="2"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1884,7 +1892,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="2"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1904,7 +1912,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="2"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1924,7 +1932,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="2"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1944,7 +1952,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="2"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1964,7 +1972,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="2"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1984,7 +1992,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A63" s="2"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2004,7 +2012,7 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="2"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2024,7 +2032,7 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="2"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2044,7 +2052,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="2"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2064,7 +2072,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="2"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2084,7 +2092,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="2"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2104,7 +2112,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="2"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2124,7 +2132,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="2"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2144,7 +2152,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="2"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2164,7 +2172,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="2"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2184,7 +2192,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="2"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2204,7 +2212,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A74" s="2"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2224,7 +2232,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="2"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2244,7 +2252,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A76" s="2"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -2264,7 +2272,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="2"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2284,7 +2292,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="2"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2304,7 +2312,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="2"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2324,7 +2332,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="2"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -2344,7 +2352,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A81" s="2"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2364,7 +2372,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A82" s="2"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2384,7 +2392,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="2"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2404,7 +2412,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="2"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2424,7 +2432,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A85" s="2"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -2444,7 +2452,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A86" s="2"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -2464,7 +2472,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="2"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -2484,7 +2492,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A88" s="2"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -2504,7 +2512,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A89" s="2"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -2524,7 +2532,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A90" s="2"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -2544,7 +2552,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A91" s="2"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -2564,7 +2572,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A92" s="2"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -2584,7 +2592,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="2"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -2604,7 +2612,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A94" s="2"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -2624,7 +2632,7 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="2"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -2644,7 +2652,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A96" s="2"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -2664,7 +2672,7 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
     </row>
-    <row r="97" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="2"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -2684,7 +2692,7 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
     </row>
-    <row r="98" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A98" s="2"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -2704,7 +2712,7 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
     </row>
-    <row r="99" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="2"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -2724,7 +2732,7 @@
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
     </row>
-    <row r="100" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="2"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -2744,7 +2752,7 @@
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
     </row>
-    <row r="101" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A101" s="2"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -2764,7 +2772,7 @@
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
     </row>
-    <row r="102" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A102" s="2"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -2784,7 +2792,7 @@
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
     </row>
-    <row r="103" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A103" s="2"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -2804,7 +2812,7 @@
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
     </row>
-    <row r="104" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A104" s="2"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -2824,7 +2832,7 @@
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
     </row>
-    <row r="105" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A105" s="2"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -2844,7 +2852,7 @@
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
     </row>
-    <row r="106" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A106" s="2"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -2864,7 +2872,7 @@
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
     </row>
-    <row r="107" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A107" s="2"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -2884,7 +2892,7 @@
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
     </row>
-    <row r="108" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A108" s="2"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -2904,7 +2912,7 @@
       <c r="Q108" s="4"/>
       <c r="R108" s="4"/>
     </row>
-    <row r="109" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A109" s="2"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -2924,7 +2932,7 @@
       <c r="Q109" s="4"/>
       <c r="R109" s="4"/>
     </row>
-    <row r="110" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A110" s="2"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -2944,7 +2952,7 @@
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
     </row>
-    <row r="111" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A111" s="2"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -2964,7 +2972,7 @@
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
     </row>
-    <row r="112" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A112" s="2"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -2984,7 +2992,7 @@
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
     </row>
-    <row r="113" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A113" s="2"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -3004,7 +3012,7 @@
       <c r="Q113" s="4"/>
       <c r="R113" s="4"/>
     </row>
-    <row r="114" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A114" s="2"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -3024,7 +3032,7 @@
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
     </row>
-    <row r="115" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A115" s="2"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -3044,7 +3052,7 @@
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
     </row>
-    <row r="116" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A116" s="2"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -3064,7 +3072,7 @@
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
     </row>
-    <row r="117" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A117" s="2"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -3084,7 +3092,7 @@
       <c r="Q117" s="4"/>
       <c r="R117" s="4"/>
     </row>
-    <row r="118" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A118" s="2"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -3104,7 +3112,7 @@
       <c r="Q118" s="4"/>
       <c r="R118" s="4"/>
     </row>
-    <row r="119" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A119" s="2"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -3124,7 +3132,7 @@
       <c r="Q119" s="4"/>
       <c r="R119" s="4"/>
     </row>
-    <row r="120" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A120" s="2"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -3144,7 +3152,7 @@
       <c r="Q120" s="4"/>
       <c r="R120" s="4"/>
     </row>
-    <row r="121" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A121" s="2"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -3164,7 +3172,7 @@
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
     </row>
-    <row r="122" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A122" s="2"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -3184,7 +3192,7 @@
       <c r="Q122" s="4"/>
       <c r="R122" s="4"/>
     </row>
-    <row r="123" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A123" s="2"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -3204,7 +3212,7 @@
       <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
     </row>
-    <row r="124" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A124" s="2"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -3224,7 +3232,7 @@
       <c r="Q124" s="4"/>
       <c r="R124" s="4"/>
     </row>
-    <row r="125" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A125" s="2"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -3244,7 +3252,7 @@
       <c r="Q125" s="4"/>
       <c r="R125" s="4"/>
     </row>
-    <row r="126" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A126" s="2"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -3264,7 +3272,7 @@
       <c r="Q126" s="4"/>
       <c r="R126" s="4"/>
     </row>
-    <row r="127" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A127" s="2"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -3284,7 +3292,7 @@
       <c r="Q127" s="4"/>
       <c r="R127" s="4"/>
     </row>
-    <row r="128" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A128" s="2"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -3304,7 +3312,7 @@
       <c r="Q128" s="4"/>
       <c r="R128" s="4"/>
     </row>
-    <row r="129" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A129" s="2"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -3324,7 +3332,7 @@
       <c r="Q129" s="4"/>
       <c r="R129" s="4"/>
     </row>
-    <row r="130" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A130" s="2"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -3344,7 +3352,7 @@
       <c r="Q130" s="4"/>
       <c r="R130" s="4"/>
     </row>
-    <row r="131" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A131" s="2"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -3364,7 +3372,7 @@
       <c r="Q131" s="4"/>
       <c r="R131" s="4"/>
     </row>
-    <row r="132" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A132" s="2"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -3384,7 +3392,7 @@
       <c r="Q132" s="4"/>
       <c r="R132" s="4"/>
     </row>
-    <row r="133" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A133" s="2"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -3404,7 +3412,7 @@
       <c r="Q133" s="4"/>
       <c r="R133" s="4"/>
     </row>
-    <row r="134" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A134" s="2"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -3424,7 +3432,7 @@
       <c r="Q134" s="4"/>
       <c r="R134" s="4"/>
     </row>
-    <row r="135" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A135" s="2"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -3444,7 +3452,7 @@
       <c r="Q135" s="4"/>
       <c r="R135" s="4"/>
     </row>
-    <row r="136" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A136" s="2"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -3464,7 +3472,7 @@
       <c r="Q136" s="4"/>
       <c r="R136" s="4"/>
     </row>
-    <row r="137" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A137" s="2"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -3484,7 +3492,7 @@
       <c r="Q137" s="4"/>
       <c r="R137" s="4"/>
     </row>
-    <row r="138" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A138" s="2"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -3504,7 +3512,7 @@
       <c r="Q138" s="4"/>
       <c r="R138" s="4"/>
     </row>
-    <row r="139" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A139" s="2"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -3524,7 +3532,7 @@
       <c r="Q139" s="4"/>
       <c r="R139" s="4"/>
     </row>
-    <row r="140" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A140" s="2"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -3544,7 +3552,7 @@
       <c r="Q140" s="4"/>
       <c r="R140" s="4"/>
     </row>
-    <row r="141" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A141" s="2"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -3564,7 +3572,7 @@
       <c r="Q141" s="4"/>
       <c r="R141" s="4"/>
     </row>
-    <row r="142" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A142" s="2"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -3584,7 +3592,7 @@
       <c r="Q142" s="4"/>
       <c r="R142" s="4"/>
     </row>
-    <row r="143" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A143" s="2"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -3604,7 +3612,7 @@
       <c r="Q143" s="4"/>
       <c r="R143" s="4"/>
     </row>
-    <row r="144" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A144" s="2"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -3624,7 +3632,7 @@
       <c r="Q144" s="4"/>
       <c r="R144" s="4"/>
     </row>
-    <row r="145" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A145" s="2"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -3644,7 +3652,7 @@
       <c r="Q145" s="4"/>
       <c r="R145" s="4"/>
     </row>
-    <row r="146" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A146" s="2"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -3664,7 +3672,7 @@
       <c r="Q146" s="4"/>
       <c r="R146" s="4"/>
     </row>
-    <row r="147" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A147" s="2"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -3684,7 +3692,7 @@
       <c r="Q147" s="4"/>
       <c r="R147" s="4"/>
     </row>
-    <row r="148" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A148" s="2"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -3704,7 +3712,7 @@
       <c r="Q148" s="4"/>
       <c r="R148" s="4"/>
     </row>
-    <row r="149" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A149" s="2"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -3724,7 +3732,7 @@
       <c r="Q149" s="4"/>
       <c r="R149" s="4"/>
     </row>
-    <row r="150" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A150" s="2"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -3744,7 +3752,7 @@
       <c r="Q150" s="4"/>
       <c r="R150" s="4"/>
     </row>
-    <row r="151" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A151" s="2"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -3764,7 +3772,7 @@
       <c r="Q151" s="4"/>
       <c r="R151" s="4"/>
     </row>
-    <row r="152" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A152" s="2"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -3784,7 +3792,7 @@
       <c r="Q152" s="4"/>
       <c r="R152" s="4"/>
     </row>
-    <row r="153" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A153" s="2"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -3804,7 +3812,7 @@
       <c r="Q153" s="4"/>
       <c r="R153" s="4"/>
     </row>
-    <row r="154" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A154" s="2"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -3824,7 +3832,7 @@
       <c r="Q154" s="4"/>
       <c r="R154" s="4"/>
     </row>
-    <row r="155" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A155" s="2"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -3844,7 +3852,7 @@
       <c r="Q155" s="4"/>
       <c r="R155" s="4"/>
     </row>
-    <row r="156" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A156" s="2"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -3864,7 +3872,7 @@
       <c r="Q156" s="4"/>
       <c r="R156" s="4"/>
     </row>
-    <row r="157" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A157" s="2"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -3884,7 +3892,7 @@
       <c r="Q157" s="4"/>
       <c r="R157" s="4"/>
     </row>
-    <row r="158" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A158" s="2"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -3904,7 +3912,7 @@
       <c r="Q158" s="4"/>
       <c r="R158" s="4"/>
     </row>
-    <row r="159" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A159" s="2"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -3924,7 +3932,7 @@
       <c r="Q159" s="4"/>
       <c r="R159" s="4"/>
     </row>
-    <row r="160" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A160" s="2"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -3944,7 +3952,7 @@
       <c r="Q160" s="4"/>
       <c r="R160" s="4"/>
     </row>
-    <row r="161" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A161" s="2"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -3964,7 +3972,7 @@
       <c r="Q161" s="4"/>
       <c r="R161" s="4"/>
     </row>
-    <row r="162" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A162" s="2"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -3984,7 +3992,7 @@
       <c r="Q162" s="4"/>
       <c r="R162" s="4"/>
     </row>
-    <row r="163" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A163" s="2"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -4004,7 +4012,7 @@
       <c r="Q163" s="4"/>
       <c r="R163" s="4"/>
     </row>
-    <row r="164" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A164" s="2"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -4024,7 +4032,7 @@
       <c r="Q164" s="4"/>
       <c r="R164" s="4"/>
     </row>
-    <row r="165" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A165" s="2"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -4044,7 +4052,7 @@
       <c r="Q165" s="4"/>
       <c r="R165" s="4"/>
     </row>
-    <row r="166" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A166" s="2"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -4064,7 +4072,7 @@
       <c r="Q166" s="4"/>
       <c r="R166" s="4"/>
     </row>
-    <row r="167" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A167" s="2"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -4084,7 +4092,7 @@
       <c r="Q167" s="4"/>
       <c r="R167" s="4"/>
     </row>
-    <row r="168" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A168" s="2"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -4104,7 +4112,7 @@
       <c r="Q168" s="4"/>
       <c r="R168" s="4"/>
     </row>
-    <row r="169" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A169" s="2"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -4124,7 +4132,7 @@
       <c r="Q169" s="4"/>
       <c r="R169" s="4"/>
     </row>
-    <row r="170" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A170" s="2"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -4144,7 +4152,7 @@
       <c r="Q170" s="4"/>
       <c r="R170" s="4"/>
     </row>
-    <row r="171" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A171" s="2"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -4164,7 +4172,7 @@
       <c r="Q171" s="4"/>
       <c r="R171" s="4"/>
     </row>
-    <row r="172" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A172" s="2"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -4184,7 +4192,7 @@
       <c r="Q172" s="4"/>
       <c r="R172" s="4"/>
     </row>
-    <row r="173" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A173" s="2"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -4204,7 +4212,7 @@
       <c r="Q173" s="4"/>
       <c r="R173" s="4"/>
     </row>
-    <row r="174" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A174" s="2"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -4224,7 +4232,7 @@
       <c r="Q174" s="4"/>
       <c r="R174" s="4"/>
     </row>
-    <row r="175" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A175" s="2"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -4244,7 +4252,7 @@
       <c r="Q175" s="4"/>
       <c r="R175" s="4"/>
     </row>
-    <row r="176" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A176" s="2"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -4264,7 +4272,7 @@
       <c r="Q176" s="4"/>
       <c r="R176" s="4"/>
     </row>
-    <row r="177" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A177" s="2"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -4284,7 +4292,7 @@
       <c r="Q177" s="4"/>
       <c r="R177" s="4"/>
     </row>
-    <row r="178" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A178" s="2"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -4304,7 +4312,7 @@
       <c r="Q178" s="4"/>
       <c r="R178" s="4"/>
     </row>
-    <row r="179" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A179" s="2"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -4324,7 +4332,7 @@
       <c r="Q179" s="4"/>
       <c r="R179" s="4"/>
     </row>
-    <row r="180" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A180" s="2"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -4344,7 +4352,7 @@
       <c r="Q180" s="4"/>
       <c r="R180" s="4"/>
     </row>
-    <row r="181" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A181" s="2"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -4364,7 +4372,7 @@
       <c r="Q181" s="4"/>
       <c r="R181" s="4"/>
     </row>
-    <row r="182" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A182" s="2"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -4384,7 +4392,7 @@
       <c r="Q182" s="4"/>
       <c r="R182" s="4"/>
     </row>
-    <row r="183" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A183" s="2"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -4404,7 +4412,7 @@
       <c r="Q183" s="4"/>
       <c r="R183" s="4"/>
     </row>
-    <row r="184" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A184" s="2"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -4424,7 +4432,7 @@
       <c r="Q184" s="4"/>
       <c r="R184" s="4"/>
     </row>
-    <row r="185" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A185" s="2"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -4444,7 +4452,7 @@
       <c r="Q185" s="4"/>
       <c r="R185" s="4"/>
     </row>
-    <row r="186" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A186" s="2"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -4464,7 +4472,7 @@
       <c r="Q186" s="4"/>
       <c r="R186" s="4"/>
     </row>
-    <row r="187" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A187" s="2"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -4484,7 +4492,7 @@
       <c r="Q187" s="4"/>
       <c r="R187" s="4"/>
     </row>
-    <row r="188" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A188" s="2"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -4504,7 +4512,7 @@
       <c r="Q188" s="4"/>
       <c r="R188" s="4"/>
     </row>
-    <row r="189" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A189" s="2"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -4524,7 +4532,7 @@
       <c r="Q189" s="4"/>
       <c r="R189" s="4"/>
     </row>
-    <row r="190" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A190" s="2"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -4544,7 +4552,7 @@
       <c r="Q190" s="4"/>
       <c r="R190" s="4"/>
     </row>
-    <row r="191" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A191" s="2"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -4564,7 +4572,7 @@
       <c r="Q191" s="4"/>
       <c r="R191" s="4"/>
     </row>
-    <row r="192" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A192" s="2"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -4584,7 +4592,7 @@
       <c r="Q192" s="4"/>
       <c r="R192" s="4"/>
     </row>
-    <row r="193" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A193" s="2"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -4604,7 +4612,7 @@
       <c r="Q193" s="4"/>
       <c r="R193" s="4"/>
     </row>
-    <row r="194" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A194" s="2"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -4624,7 +4632,7 @@
       <c r="Q194" s="4"/>
       <c r="R194" s="4"/>
     </row>
-    <row r="195" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A195" s="2"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -4644,7 +4652,7 @@
       <c r="Q195" s="4"/>
       <c r="R195" s="4"/>
     </row>
-    <row r="196" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A196" s="2"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -4664,7 +4672,7 @@
       <c r="Q196" s="4"/>
       <c r="R196" s="4"/>
     </row>
-    <row r="197" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A197" s="2"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -4684,7 +4692,7 @@
       <c r="Q197" s="4"/>
       <c r="R197" s="4"/>
     </row>
-    <row r="198" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A198" s="2"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -4704,7 +4712,7 @@
       <c r="Q198" s="4"/>
       <c r="R198" s="4"/>
     </row>
-    <row r="199" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A199" s="2"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -4724,7 +4732,7 @@
       <c r="Q199" s="4"/>
       <c r="R199" s="4"/>
     </row>
-    <row r="200" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A200" s="2"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -4744,7 +4752,7 @@
       <c r="Q200" s="4"/>
       <c r="R200" s="4"/>
     </row>
-    <row r="201" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A201" s="2"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -4764,7 +4772,7 @@
       <c r="Q201" s="4"/>
       <c r="R201" s="4"/>
     </row>
-    <row r="202" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A202" s="2"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -4784,7 +4792,7 @@
       <c r="Q202" s="4"/>
       <c r="R202" s="4"/>
     </row>
-    <row r="203" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A203" s="2"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -4804,7 +4812,7 @@
       <c r="Q203" s="4"/>
       <c r="R203" s="4"/>
     </row>
-    <row r="204" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A204" s="2"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -4824,7 +4832,7 @@
       <c r="Q204" s="4"/>
       <c r="R204" s="4"/>
     </row>
-    <row r="205" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A205" s="2"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -4844,7 +4852,7 @@
       <c r="Q205" s="4"/>
       <c r="R205" s="4"/>
     </row>
-    <row r="206" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A206" s="2"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -4864,7 +4872,7 @@
       <c r="Q206" s="4"/>
       <c r="R206" s="4"/>
     </row>
-    <row r="207" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A207" s="2"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -4884,7 +4892,7 @@
       <c r="Q207" s="4"/>
       <c r="R207" s="4"/>
     </row>
-    <row r="208" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A208" s="2"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -4904,7 +4912,7 @@
       <c r="Q208" s="4"/>
       <c r="R208" s="4"/>
     </row>
-    <row r="209" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A209" s="2"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -4924,7 +4932,7 @@
       <c r="Q209" s="4"/>
       <c r="R209" s="4"/>
     </row>
-    <row r="210" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A210" s="2"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -4944,7 +4952,7 @@
       <c r="Q210" s="4"/>
       <c r="R210" s="4"/>
     </row>
-    <row r="211" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A211" s="2"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -4964,7 +4972,7 @@
       <c r="Q211" s="4"/>
       <c r="R211" s="4"/>
     </row>
-    <row r="212" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A212" s="2"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -4984,7 +4992,7 @@
       <c r="Q212" s="4"/>
       <c r="R212" s="4"/>
     </row>
-    <row r="213" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A213" s="2"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -5004,7 +5012,7 @@
       <c r="Q213" s="4"/>
       <c r="R213" s="4"/>
     </row>
-    <row r="214" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A214" s="2"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -5024,7 +5032,7 @@
       <c r="Q214" s="4"/>
       <c r="R214" s="4"/>
     </row>
-    <row r="215" spans="1:18" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="215" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="210">
     <mergeCell ref="A1:R3"/>
@@ -5048,6 +5056,15 @@
     <mergeCell ref="B9:R9"/>
     <mergeCell ref="B10:R10"/>
     <mergeCell ref="B16:R16"/>
+    <mergeCell ref="B31:R31"/>
+    <mergeCell ref="B32:R32"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="B27:R27"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="B30:R30"/>
+    <mergeCell ref="B48:R48"/>
+    <mergeCell ref="B49:R49"/>
     <mergeCell ref="B38:R38"/>
     <mergeCell ref="B39:R39"/>
     <mergeCell ref="B40:R40"/>
@@ -5058,15 +5075,6 @@
     <mergeCell ref="B35:R35"/>
     <mergeCell ref="B36:R36"/>
     <mergeCell ref="B37:R37"/>
-    <mergeCell ref="B31:R31"/>
-    <mergeCell ref="B32:R32"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="B27:R27"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="B30:R30"/>
-    <mergeCell ref="B48:R48"/>
-    <mergeCell ref="B49:R49"/>
     <mergeCell ref="B50:R50"/>
     <mergeCell ref="B51:R51"/>
     <mergeCell ref="B52:R52"/>
@@ -5246,32 +5254,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1E585A-3D72-480A-9FC9-E529E4853477}">
-  <dimension ref="A1:AE237"/>
+  <dimension ref="A1:AF237"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:R14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="18" width="8.88671875" style="3"/>
-    <col min="19" max="19" width="14.109375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="11.77734375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="10.21875" style="3" customWidth="1"/>
-    <col min="22" max="22" width="11.21875" style="3" customWidth="1"/>
-    <col min="23" max="23" width="11.77734375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" style="3" customWidth="1"/>
-    <col min="25" max="25" width="11.21875" style="3" customWidth="1"/>
-    <col min="26" max="26" width="11.33203125" style="3" customWidth="1"/>
-    <col min="27" max="28" width="11.5546875" style="3" customWidth="1"/>
-    <col min="29" max="29" width="10.33203125" style="3" customWidth="1"/>
-    <col min="30" max="30" width="15.109375" style="3" customWidth="1"/>
-    <col min="31" max="31" width="12.5546875" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="8.88671875" style="3"/>
+    <col min="2" max="18" width="8.86328125" style="3"/>
+    <col min="19" max="19" width="19.86328125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.1328125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="11.796875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="10.19921875" style="3" customWidth="1"/>
+    <col min="23" max="23" width="11.19921875" style="3" customWidth="1"/>
+    <col min="24" max="24" width="11.796875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="11.19921875" style="3" customWidth="1"/>
+    <col min="27" max="27" width="11.33203125" style="3" customWidth="1"/>
+    <col min="28" max="29" width="11.53125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="10.33203125" style="3" customWidth="1"/>
+    <col min="31" max="31" width="15.1328125" style="3" customWidth="1"/>
+    <col min="32" max="32" width="12.53125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="8.86328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="13.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -5292,7 +5301,6 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
-      <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -5304,8 +5312,9 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE1" s="1"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -5324,7 +5333,6 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
-      <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -5336,8 +5344,9 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE2" s="1"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -5356,7 +5365,6 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
-      <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
@@ -5368,8 +5376,9 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
-    </row>
-    <row r="4" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE3" s="1"/>
+    </row>
+    <row r="4" spans="1:31" ht="13.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -5390,7 +5399,6 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -5402,8 +5410,9 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE4" s="1"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -5422,7 +5431,6 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
@@ -5434,8 +5442,9 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
-    </row>
-    <row r="6" spans="1:30" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE5" s="1"/>
+    </row>
+    <row r="6" spans="1:31" ht="25.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5455,43 +5464,46 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="19.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -5514,7 +5526,6 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -5526,8 +5537,9 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
-    </row>
-    <row r="8" spans="1:30" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE7" s="1"/>
+    </row>
+    <row r="8" spans="1:31" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -5547,7 +5559,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:30" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -5567,7 +5579,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:30" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -5587,7 +5599,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:30" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -5607,7 +5619,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:30" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -5627,7 +5639,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:30" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -5647,7 +5659,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:30" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -5667,7 +5679,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:30" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -5687,7 +5699,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:30" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -5707,7 +5719,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -5727,7 +5739,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -5747,7 +5759,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -5767,7 +5779,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -5787,7 +5799,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -5807,7 +5819,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -5827,7 +5839,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -5847,7 +5859,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -5867,7 +5879,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -5887,7 +5899,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -5907,7 +5919,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -5927,7 +5939,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -5947,7 +5959,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -5967,7 +5979,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -5987,7 +5999,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -6007,7 +6019,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -6027,7 +6039,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -6047,7 +6059,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="2"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -6067,7 +6079,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="2"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -6087,7 +6099,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -6107,7 +6119,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="2"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -6127,7 +6139,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="2"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -6147,7 +6159,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="2"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -6167,7 +6179,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="2"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -6187,7 +6199,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="2"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -6207,7 +6219,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="2"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -6227,7 +6239,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="2"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -6247,7 +6259,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="2"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -6267,7 +6279,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="2"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -6287,7 +6299,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="2"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -6307,7 +6319,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="2"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -6327,7 +6339,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="2"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -6347,7 +6359,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="2"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -6367,7 +6379,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="2"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -6387,7 +6399,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="2"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -6407,7 +6419,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="2"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -6427,7 +6439,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="2"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -6447,7 +6459,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="2"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -6467,7 +6479,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="2"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -6487,7 +6499,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="2"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -6507,7 +6519,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="2"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -6527,7 +6539,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="2"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -6547,7 +6559,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="2"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -6567,7 +6579,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="2"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -6587,7 +6599,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="2"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -6607,7 +6619,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="2"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -6627,7 +6639,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A63" s="2"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -6647,7 +6659,7 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="2"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -6667,7 +6679,7 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="2"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -6687,7 +6699,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="2"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -6707,7 +6719,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="2"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -6727,7 +6739,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="2"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -6747,7 +6759,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="2"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -6767,7 +6779,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="2"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -6787,7 +6799,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="2"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -6807,7 +6819,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="2"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -6827,7 +6839,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="2"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -6847,7 +6859,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A74" s="2"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -6867,7 +6879,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="2"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -6887,7 +6899,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A76" s="2"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -6907,7 +6919,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="2"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -6927,7 +6939,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="2"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -6947,7 +6959,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="2"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -6967,7 +6979,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="2"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -6987,7 +6999,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A81" s="2"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -7007,7 +7019,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A82" s="2"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -7027,7 +7039,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="2"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -7047,7 +7059,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="2"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -7067,7 +7079,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A85" s="2"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -7087,7 +7099,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A86" s="2"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -7107,7 +7119,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="2"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -7127,7 +7139,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A88" s="2"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -7147,7 +7159,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A89" s="2"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -7167,7 +7179,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A90" s="2"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -7187,7 +7199,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A91" s="2"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -7207,7 +7219,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A92" s="2"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -7227,7 +7239,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="2"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -7247,7 +7259,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A94" s="2"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -7267,7 +7279,7 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="2"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -7287,7 +7299,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A96" s="2"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -7307,7 +7319,7 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
     </row>
-    <row r="97" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="2"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -7327,7 +7339,7 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
     </row>
-    <row r="98" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A98" s="2"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -7347,7 +7359,7 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
     </row>
-    <row r="99" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="2"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -7367,7 +7379,7 @@
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
     </row>
-    <row r="100" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="2"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -7387,7 +7399,7 @@
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
     </row>
-    <row r="101" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A101" s="2"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -7407,7 +7419,7 @@
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
     </row>
-    <row r="102" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A102" s="2"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -7427,7 +7439,7 @@
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
     </row>
-    <row r="103" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A103" s="2"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -7447,7 +7459,7 @@
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
     </row>
-    <row r="104" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A104" s="2"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -7467,7 +7479,7 @@
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
     </row>
-    <row r="105" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A105" s="2"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -7487,7 +7499,7 @@
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
     </row>
-    <row r="106" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A106" s="2"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -7507,7 +7519,7 @@
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
     </row>
-    <row r="107" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A107" s="2"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -7527,7 +7539,7 @@
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
     </row>
-    <row r="108" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A108" s="2"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -7547,7 +7559,7 @@
       <c r="Q108" s="4"/>
       <c r="R108" s="4"/>
     </row>
-    <row r="109" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A109" s="2"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -7567,7 +7579,7 @@
       <c r="Q109" s="4"/>
       <c r="R109" s="4"/>
     </row>
-    <row r="110" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A110" s="2"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -7587,7 +7599,7 @@
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
     </row>
-    <row r="111" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A111" s="2"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -7607,7 +7619,7 @@
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
     </row>
-    <row r="112" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A112" s="2"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -7627,7 +7639,7 @@
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
     </row>
-    <row r="113" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A113" s="2"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -7647,7 +7659,7 @@
       <c r="Q113" s="4"/>
       <c r="R113" s="4"/>
     </row>
-    <row r="114" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A114" s="2"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -7667,7 +7679,7 @@
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
     </row>
-    <row r="115" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A115" s="2"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -7687,7 +7699,7 @@
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
     </row>
-    <row r="116" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A116" s="2"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -7707,7 +7719,7 @@
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
     </row>
-    <row r="117" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A117" s="2"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -7727,7 +7739,7 @@
       <c r="Q117" s="4"/>
       <c r="R117" s="4"/>
     </row>
-    <row r="118" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A118" s="2"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -7747,7 +7759,7 @@
       <c r="Q118" s="4"/>
       <c r="R118" s="4"/>
     </row>
-    <row r="119" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A119" s="2"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -7767,7 +7779,7 @@
       <c r="Q119" s="4"/>
       <c r="R119" s="4"/>
     </row>
-    <row r="120" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A120" s="2"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -7787,7 +7799,7 @@
       <c r="Q120" s="4"/>
       <c r="R120" s="4"/>
     </row>
-    <row r="121" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A121" s="2"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -7807,7 +7819,7 @@
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
     </row>
-    <row r="122" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A122" s="2"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -7827,7 +7839,7 @@
       <c r="Q122" s="4"/>
       <c r="R122" s="4"/>
     </row>
-    <row r="123" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A123" s="2"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -7847,7 +7859,7 @@
       <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
     </row>
-    <row r="124" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A124" s="2"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -7867,7 +7879,7 @@
       <c r="Q124" s="4"/>
       <c r="R124" s="4"/>
     </row>
-    <row r="125" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A125" s="2"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -7887,7 +7899,7 @@
       <c r="Q125" s="4"/>
       <c r="R125" s="4"/>
     </row>
-    <row r="126" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A126" s="2"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -7907,7 +7919,7 @@
       <c r="Q126" s="4"/>
       <c r="R126" s="4"/>
     </row>
-    <row r="127" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A127" s="2"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -7927,7 +7939,7 @@
       <c r="Q127" s="4"/>
       <c r="R127" s="4"/>
     </row>
-    <row r="128" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A128" s="2"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -7947,7 +7959,7 @@
       <c r="Q128" s="4"/>
       <c r="R128" s="4"/>
     </row>
-    <row r="129" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A129" s="2"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -7967,7 +7979,7 @@
       <c r="Q129" s="4"/>
       <c r="R129" s="4"/>
     </row>
-    <row r="130" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A130" s="2"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -7987,7 +7999,7 @@
       <c r="Q130" s="4"/>
       <c r="R130" s="4"/>
     </row>
-    <row r="131" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A131" s="2"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -8007,7 +8019,7 @@
       <c r="Q131" s="4"/>
       <c r="R131" s="4"/>
     </row>
-    <row r="132" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A132" s="2"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -8027,7 +8039,7 @@
       <c r="Q132" s="4"/>
       <c r="R132" s="4"/>
     </row>
-    <row r="133" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A133" s="2"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -8047,7 +8059,7 @@
       <c r="Q133" s="4"/>
       <c r="R133" s="4"/>
     </row>
-    <row r="134" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A134" s="2"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -8067,7 +8079,7 @@
       <c r="Q134" s="4"/>
       <c r="R134" s="4"/>
     </row>
-    <row r="135" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A135" s="2"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -8087,7 +8099,7 @@
       <c r="Q135" s="4"/>
       <c r="R135" s="4"/>
     </row>
-    <row r="136" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A136" s="2"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -8107,7 +8119,7 @@
       <c r="Q136" s="4"/>
       <c r="R136" s="4"/>
     </row>
-    <row r="137" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A137" s="2"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -8127,7 +8139,7 @@
       <c r="Q137" s="4"/>
       <c r="R137" s="4"/>
     </row>
-    <row r="138" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A138" s="2"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -8147,7 +8159,7 @@
       <c r="Q138" s="4"/>
       <c r="R138" s="4"/>
     </row>
-    <row r="139" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A139" s="2"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -8167,7 +8179,7 @@
       <c r="Q139" s="4"/>
       <c r="R139" s="4"/>
     </row>
-    <row r="140" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A140" s="2"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -8187,7 +8199,7 @@
       <c r="Q140" s="4"/>
       <c r="R140" s="4"/>
     </row>
-    <row r="141" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A141" s="2"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -8207,7 +8219,7 @@
       <c r="Q141" s="4"/>
       <c r="R141" s="4"/>
     </row>
-    <row r="142" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A142" s="2"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -8227,7 +8239,7 @@
       <c r="Q142" s="4"/>
       <c r="R142" s="4"/>
     </row>
-    <row r="143" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A143" s="2"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -8247,7 +8259,7 @@
       <c r="Q143" s="4"/>
       <c r="R143" s="4"/>
     </row>
-    <row r="144" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A144" s="2"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -8267,7 +8279,7 @@
       <c r="Q144" s="4"/>
       <c r="R144" s="4"/>
     </row>
-    <row r="145" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A145" s="2"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -8287,7 +8299,7 @@
       <c r="Q145" s="4"/>
       <c r="R145" s="4"/>
     </row>
-    <row r="146" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A146" s="2"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -8307,7 +8319,7 @@
       <c r="Q146" s="4"/>
       <c r="R146" s="4"/>
     </row>
-    <row r="147" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A147" s="2"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -8327,7 +8339,7 @@
       <c r="Q147" s="4"/>
       <c r="R147" s="4"/>
     </row>
-    <row r="148" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A148" s="2"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -8347,7 +8359,7 @@
       <c r="Q148" s="4"/>
       <c r="R148" s="4"/>
     </row>
-    <row r="149" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A149" s="2"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -8367,7 +8379,7 @@
       <c r="Q149" s="4"/>
       <c r="R149" s="4"/>
     </row>
-    <row r="150" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A150" s="2"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -8387,7 +8399,7 @@
       <c r="Q150" s="4"/>
       <c r="R150" s="4"/>
     </row>
-    <row r="151" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A151" s="2"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -8407,7 +8419,7 @@
       <c r="Q151" s="4"/>
       <c r="R151" s="4"/>
     </row>
-    <row r="152" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A152" s="2"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -8427,7 +8439,7 @@
       <c r="Q152" s="4"/>
       <c r="R152" s="4"/>
     </row>
-    <row r="153" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A153" s="2"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -8447,7 +8459,7 @@
       <c r="Q153" s="4"/>
       <c r="R153" s="4"/>
     </row>
-    <row r="154" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A154" s="2"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -8467,7 +8479,7 @@
       <c r="Q154" s="4"/>
       <c r="R154" s="4"/>
     </row>
-    <row r="155" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A155" s="2"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -8487,7 +8499,7 @@
       <c r="Q155" s="4"/>
       <c r="R155" s="4"/>
     </row>
-    <row r="156" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A156" s="2"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -8507,7 +8519,7 @@
       <c r="Q156" s="4"/>
       <c r="R156" s="4"/>
     </row>
-    <row r="157" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A157" s="2"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -8527,7 +8539,7 @@
       <c r="Q157" s="4"/>
       <c r="R157" s="4"/>
     </row>
-    <row r="158" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A158" s="2"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -8547,7 +8559,7 @@
       <c r="Q158" s="4"/>
       <c r="R158" s="4"/>
     </row>
-    <row r="159" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A159" s="2"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -8567,7 +8579,7 @@
       <c r="Q159" s="4"/>
       <c r="R159" s="4"/>
     </row>
-    <row r="160" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A160" s="2"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -8587,7 +8599,7 @@
       <c r="Q160" s="4"/>
       <c r="R160" s="4"/>
     </row>
-    <row r="161" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A161" s="2"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -8607,7 +8619,7 @@
       <c r="Q161" s="4"/>
       <c r="R161" s="4"/>
     </row>
-    <row r="162" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A162" s="2"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -8627,7 +8639,7 @@
       <c r="Q162" s="4"/>
       <c r="R162" s="4"/>
     </row>
-    <row r="163" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A163" s="2"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -8647,7 +8659,7 @@
       <c r="Q163" s="4"/>
       <c r="R163" s="4"/>
     </row>
-    <row r="164" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A164" s="2"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -8667,7 +8679,7 @@
       <c r="Q164" s="4"/>
       <c r="R164" s="4"/>
     </row>
-    <row r="165" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A165" s="2"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -8687,7 +8699,7 @@
       <c r="Q165" s="4"/>
       <c r="R165" s="4"/>
     </row>
-    <row r="166" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A166" s="2"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -8707,7 +8719,7 @@
       <c r="Q166" s="4"/>
       <c r="R166" s="4"/>
     </row>
-    <row r="167" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A167" s="2"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -8727,7 +8739,7 @@
       <c r="Q167" s="4"/>
       <c r="R167" s="4"/>
     </row>
-    <row r="168" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A168" s="2"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -8747,7 +8759,7 @@
       <c r="Q168" s="4"/>
       <c r="R168" s="4"/>
     </row>
-    <row r="169" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A169" s="2"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -8767,7 +8779,7 @@
       <c r="Q169" s="4"/>
       <c r="R169" s="4"/>
     </row>
-    <row r="170" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A170" s="2"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -8787,7 +8799,7 @@
       <c r="Q170" s="4"/>
       <c r="R170" s="4"/>
     </row>
-    <row r="171" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A171" s="2"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -8807,7 +8819,7 @@
       <c r="Q171" s="4"/>
       <c r="R171" s="4"/>
     </row>
-    <row r="172" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A172" s="2"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -8827,7 +8839,7 @@
       <c r="Q172" s="4"/>
       <c r="R172" s="4"/>
     </row>
-    <row r="173" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A173" s="2"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -8847,7 +8859,7 @@
       <c r="Q173" s="4"/>
       <c r="R173" s="4"/>
     </row>
-    <row r="174" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A174" s="2"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -8867,7 +8879,7 @@
       <c r="Q174" s="4"/>
       <c r="R174" s="4"/>
     </row>
-    <row r="175" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A175" s="2"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -8887,7 +8899,7 @@
       <c r="Q175" s="4"/>
       <c r="R175" s="4"/>
     </row>
-    <row r="176" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A176" s="2"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -8907,7 +8919,7 @@
       <c r="Q176" s="4"/>
       <c r="R176" s="4"/>
     </row>
-    <row r="177" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A177" s="2"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -8927,7 +8939,7 @@
       <c r="Q177" s="4"/>
       <c r="R177" s="4"/>
     </row>
-    <row r="178" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A178" s="2"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -8947,7 +8959,7 @@
       <c r="Q178" s="4"/>
       <c r="R178" s="4"/>
     </row>
-    <row r="179" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A179" s="2"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -8967,7 +8979,7 @@
       <c r="Q179" s="4"/>
       <c r="R179" s="4"/>
     </row>
-    <row r="180" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A180" s="2"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -8987,7 +8999,7 @@
       <c r="Q180" s="4"/>
       <c r="R180" s="4"/>
     </row>
-    <row r="181" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A181" s="2"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -9007,7 +9019,7 @@
       <c r="Q181" s="4"/>
       <c r="R181" s="4"/>
     </row>
-    <row r="182" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A182" s="2"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -9027,7 +9039,7 @@
       <c r="Q182" s="4"/>
       <c r="R182" s="4"/>
     </row>
-    <row r="183" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A183" s="2"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -9047,7 +9059,7 @@
       <c r="Q183" s="4"/>
       <c r="R183" s="4"/>
     </row>
-    <row r="184" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A184" s="2"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -9067,7 +9079,7 @@
       <c r="Q184" s="4"/>
       <c r="R184" s="4"/>
     </row>
-    <row r="185" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A185" s="2"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -9087,7 +9099,7 @@
       <c r="Q185" s="4"/>
       <c r="R185" s="4"/>
     </row>
-    <row r="186" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A186" s="2"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -9107,7 +9119,7 @@
       <c r="Q186" s="4"/>
       <c r="R186" s="4"/>
     </row>
-    <row r="187" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A187" s="2"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -9127,7 +9139,7 @@
       <c r="Q187" s="4"/>
       <c r="R187" s="4"/>
     </row>
-    <row r="188" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A188" s="2"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -9147,7 +9159,7 @@
       <c r="Q188" s="4"/>
       <c r="R188" s="4"/>
     </row>
-    <row r="189" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A189" s="2"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -9167,7 +9179,7 @@
       <c r="Q189" s="4"/>
       <c r="R189" s="4"/>
     </row>
-    <row r="190" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A190" s="2"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -9187,7 +9199,7 @@
       <c r="Q190" s="4"/>
       <c r="R190" s="4"/>
     </row>
-    <row r="191" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A191" s="2"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -9207,7 +9219,7 @@
       <c r="Q191" s="4"/>
       <c r="R191" s="4"/>
     </row>
-    <row r="192" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A192" s="2"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -9227,7 +9239,7 @@
       <c r="Q192" s="4"/>
       <c r="R192" s="4"/>
     </row>
-    <row r="193" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A193" s="2"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -9247,7 +9259,7 @@
       <c r="Q193" s="4"/>
       <c r="R193" s="4"/>
     </row>
-    <row r="194" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A194" s="2"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -9267,7 +9279,7 @@
       <c r="Q194" s="4"/>
       <c r="R194" s="4"/>
     </row>
-    <row r="195" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A195" s="2"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -9287,7 +9299,7 @@
       <c r="Q195" s="4"/>
       <c r="R195" s="4"/>
     </row>
-    <row r="196" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A196" s="2"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -9307,7 +9319,7 @@
       <c r="Q196" s="4"/>
       <c r="R196" s="4"/>
     </row>
-    <row r="197" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A197" s="2"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -9327,7 +9339,7 @@
       <c r="Q197" s="4"/>
       <c r="R197" s="4"/>
     </row>
-    <row r="198" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A198" s="2"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -9347,7 +9359,7 @@
       <c r="Q198" s="4"/>
       <c r="R198" s="4"/>
     </row>
-    <row r="199" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A199" s="2"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -9367,7 +9379,7 @@
       <c r="Q199" s="4"/>
       <c r="R199" s="4"/>
     </row>
-    <row r="200" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A200" s="2"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -9387,7 +9399,7 @@
       <c r="Q200" s="4"/>
       <c r="R200" s="4"/>
     </row>
-    <row r="201" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A201" s="2"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -9407,7 +9419,7 @@
       <c r="Q201" s="4"/>
       <c r="R201" s="4"/>
     </row>
-    <row r="202" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A202" s="2"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -9427,7 +9439,7 @@
       <c r="Q202" s="4"/>
       <c r="R202" s="4"/>
     </row>
-    <row r="203" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A203" s="2"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -9447,7 +9459,7 @@
       <c r="Q203" s="4"/>
       <c r="R203" s="4"/>
     </row>
-    <row r="204" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A204" s="2"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -9467,7 +9479,7 @@
       <c r="Q204" s="4"/>
       <c r="R204" s="4"/>
     </row>
-    <row r="205" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A205" s="2"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -9487,7 +9499,7 @@
       <c r="Q205" s="4"/>
       <c r="R205" s="4"/>
     </row>
-    <row r="206" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A206" s="2"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -9507,7 +9519,7 @@
       <c r="Q206" s="4"/>
       <c r="R206" s="4"/>
     </row>
-    <row r="207" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A207" s="2"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -9527,7 +9539,7 @@
       <c r="Q207" s="4"/>
       <c r="R207" s="4"/>
     </row>
-    <row r="208" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A208" s="2"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -9547,7 +9559,7 @@
       <c r="Q208" s="4"/>
       <c r="R208" s="4"/>
     </row>
-    <row r="209" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A209" s="2"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -9567,7 +9579,7 @@
       <c r="Q209" s="4"/>
       <c r="R209" s="4"/>
     </row>
-    <row r="210" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A210" s="2"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -9587,7 +9599,7 @@
       <c r="Q210" s="4"/>
       <c r="R210" s="4"/>
     </row>
-    <row r="211" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A211" s="2"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -9607,7 +9619,7 @@
       <c r="Q211" s="4"/>
       <c r="R211" s="4"/>
     </row>
-    <row r="212" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A212" s="2"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -9627,7 +9639,7 @@
       <c r="Q212" s="4"/>
       <c r="R212" s="4"/>
     </row>
-    <row r="213" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A213" s="2"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -9647,7 +9659,7 @@
       <c r="Q213" s="4"/>
       <c r="R213" s="4"/>
     </row>
-    <row r="214" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A214" s="2"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -9667,7 +9679,7 @@
       <c r="Q214" s="4"/>
       <c r="R214" s="4"/>
     </row>
-    <row r="215" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A215" s="2"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -9687,7 +9699,7 @@
       <c r="Q215" s="4"/>
       <c r="R215" s="4"/>
     </row>
-    <row r="216" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A216" s="2"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -9707,7 +9719,7 @@
       <c r="Q216" s="4"/>
       <c r="R216" s="4"/>
     </row>
-    <row r="217" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A217" s="2"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -9727,7 +9739,7 @@
       <c r="Q217" s="4"/>
       <c r="R217" s="4"/>
     </row>
-    <row r="218" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A218" s="2"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -9747,7 +9759,7 @@
       <c r="Q218" s="4"/>
       <c r="R218" s="4"/>
     </row>
-    <row r="219" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A219" s="2"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -9767,7 +9779,7 @@
       <c r="Q219" s="4"/>
       <c r="R219" s="4"/>
     </row>
-    <row r="220" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A220" s="2"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -9787,7 +9799,7 @@
       <c r="Q220" s="4"/>
       <c r="R220" s="4"/>
     </row>
-    <row r="221" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A221" s="2"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -9807,7 +9819,7 @@
       <c r="Q221" s="4"/>
       <c r="R221" s="4"/>
     </row>
-    <row r="222" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A222" s="2"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -9827,7 +9839,7 @@
       <c r="Q222" s="4"/>
       <c r="R222" s="4"/>
     </row>
-    <row r="223" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A223" s="2"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -9847,7 +9859,7 @@
       <c r="Q223" s="4"/>
       <c r="R223" s="4"/>
     </row>
-    <row r="224" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A224" s="2"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -9867,7 +9879,7 @@
       <c r="Q224" s="4"/>
       <c r="R224" s="4"/>
     </row>
-    <row r="225" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A225" s="2"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -9887,7 +9899,7 @@
       <c r="Q225" s="4"/>
       <c r="R225" s="4"/>
     </row>
-    <row r="226" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A226" s="2"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -9907,7 +9919,7 @@
       <c r="Q226" s="4"/>
       <c r="R226" s="4"/>
     </row>
-    <row r="227" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A227" s="2"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -9927,7 +9939,7 @@
       <c r="Q227" s="4"/>
       <c r="R227" s="4"/>
     </row>
-    <row r="228" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A228" s="2"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -9947,7 +9959,7 @@
       <c r="Q228" s="4"/>
       <c r="R228" s="4"/>
     </row>
-    <row r="229" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A229" s="2"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -9967,7 +9979,7 @@
       <c r="Q229" s="4"/>
       <c r="R229" s="4"/>
     </row>
-    <row r="230" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A230" s="2"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -9987,7 +9999,7 @@
       <c r="Q230" s="4"/>
       <c r="R230" s="4"/>
     </row>
-    <row r="231" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A231" s="2"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -10007,7 +10019,7 @@
       <c r="Q231" s="4"/>
       <c r="R231" s="4"/>
     </row>
-    <row r="232" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A232" s="2"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -10027,7 +10039,7 @@
       <c r="Q232" s="4"/>
       <c r="R232" s="4"/>
     </row>
-    <row r="233" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A233" s="2"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -10047,7 +10059,7 @@
       <c r="Q233" s="4"/>
       <c r="R233" s="4"/>
     </row>
-    <row r="234" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A234" s="2"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -10067,7 +10079,7 @@
       <c r="Q234" s="4"/>
       <c r="R234" s="4"/>
     </row>
-    <row r="235" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A235" s="2"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -10087,7 +10099,7 @@
       <c r="Q235" s="4"/>
       <c r="R235" s="4"/>
     </row>
-    <row r="236" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A236" s="2"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -10107,7 +10119,7 @@
       <c r="Q236" s="4"/>
       <c r="R236" s="4"/>
     </row>
-    <row r="237" spans="1:18" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="237" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="232">
     <mergeCell ref="A1:R3"/>
@@ -10351,32 +10363,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2917DEDF-14AC-40F8-82AA-F60608F1D3CD}">
-  <dimension ref="A1:AE285"/>
+  <dimension ref="A1:AF285"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="18" width="8.88671875" style="3"/>
-    <col min="19" max="19" width="14.109375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="11.77734375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="10.21875" style="3" customWidth="1"/>
-    <col min="22" max="22" width="11.21875" style="3" customWidth="1"/>
-    <col min="23" max="23" width="11.77734375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" style="3" customWidth="1"/>
-    <col min="25" max="25" width="11.21875" style="3" customWidth="1"/>
-    <col min="26" max="26" width="11.33203125" style="3" customWidth="1"/>
-    <col min="27" max="28" width="11.5546875" style="3" customWidth="1"/>
-    <col min="29" max="29" width="10.33203125" style="3" customWidth="1"/>
-    <col min="30" max="30" width="15.109375" style="3" customWidth="1"/>
-    <col min="31" max="31" width="12.109375" style="3" customWidth="1"/>
-    <col min="32" max="16384" width="8.88671875" style="3"/>
+    <col min="2" max="18" width="8.86328125" style="3"/>
+    <col min="19" max="19" width="14.86328125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.1328125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="11.796875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="10.19921875" style="3" customWidth="1"/>
+    <col min="23" max="23" width="11.19921875" style="3" customWidth="1"/>
+    <col min="24" max="24" width="11.796875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="11.19921875" style="3" customWidth="1"/>
+    <col min="27" max="27" width="11.33203125" style="3" customWidth="1"/>
+    <col min="28" max="29" width="11.53125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="10.33203125" style="3" customWidth="1"/>
+    <col min="31" max="31" width="15.1328125" style="3" customWidth="1"/>
+    <col min="32" max="32" width="12.1328125" style="3" customWidth="1"/>
+    <col min="33" max="16384" width="8.86328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="13.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -10397,7 +10410,6 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
-      <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -10409,8 +10421,9 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE1" s="1"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -10429,7 +10442,6 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
-      <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -10441,8 +10453,9 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE2" s="1"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -10461,7 +10474,6 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
-      <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
@@ -10473,8 +10485,9 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
-    </row>
-    <row r="4" spans="1:31" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE3" s="1"/>
+    </row>
+    <row r="4" spans="1:32" ht="13.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -10495,7 +10508,6 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -10507,8 +10519,9 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE4" s="1"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -10527,7 +10540,6 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
@@ -10539,8 +10551,9 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
-    </row>
-    <row r="6" spans="1:31" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE5" s="1"/>
+    </row>
+    <row r="6" spans="1:32" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -10560,44 +10573,47 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AE6" s="1"/>
-    </row>
-    <row r="7" spans="1:31" ht="19.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF6" s="1"/>
+    </row>
+    <row r="7" spans="1:32" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -10620,7 +10636,6 @@
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="12"/>
-      <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -10632,8 +10647,9 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
-    </row>
-    <row r="8" spans="1:31" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE7" s="1"/>
+    </row>
+    <row r="8" spans="1:32" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
@@ -10653,7 +10669,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="10"/>
     </row>
-    <row r="9" spans="1:31" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
@@ -10673,7 +10689,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="10"/>
     </row>
-    <row r="10" spans="1:31" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
@@ -10693,7 +10709,7 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="10"/>
     </row>
-    <row r="11" spans="1:31" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
@@ -10713,7 +10729,7 @@
       <c r="Q11" s="9"/>
       <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:31" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
@@ -10733,7 +10749,7 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="10"/>
     </row>
-    <row r="13" spans="1:31" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -10753,7 +10769,7 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="10"/>
     </row>
-    <row r="14" spans="1:31" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
@@ -10773,7 +10789,7 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="10"/>
     </row>
-    <row r="15" spans="1:31" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
@@ -10793,7 +10809,7 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="10"/>
     </row>
-    <row r="16" spans="1:31" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
@@ -10813,7 +10829,7 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="10"/>
     </row>
-    <row r="17" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
@@ -10833,7 +10849,7 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="10"/>
     </row>
-    <row r="18" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
@@ -10853,7 +10869,7 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="10"/>
     </row>
-    <row r="19" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
@@ -10873,7 +10889,7 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="10"/>
     </row>
-    <row r="20" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
@@ -10893,7 +10909,7 @@
       <c r="Q20" s="9"/>
       <c r="R20" s="10"/>
     </row>
-    <row r="21" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -10913,7 +10929,7 @@
       <c r="Q21" s="9"/>
       <c r="R21" s="10"/>
     </row>
-    <row r="22" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
@@ -10933,7 +10949,7 @@
       <c r="Q22" s="9"/>
       <c r="R22" s="10"/>
     </row>
-    <row r="23" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
@@ -10953,7 +10969,7 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="10"/>
     </row>
-    <row r="24" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
@@ -10973,7 +10989,7 @@
       <c r="Q24" s="9"/>
       <c r="R24" s="10"/>
     </row>
-    <row r="25" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
@@ -10993,7 +11009,7 @@
       <c r="Q25" s="9"/>
       <c r="R25" s="10"/>
     </row>
-    <row r="26" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
@@ -11013,7 +11029,7 @@
       <c r="Q26" s="9"/>
       <c r="R26" s="10"/>
     </row>
-    <row r="27" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
@@ -11033,7 +11049,7 @@
       <c r="Q27" s="9"/>
       <c r="R27" s="10"/>
     </row>
-    <row r="28" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
@@ -11053,7 +11069,7 @@
       <c r="Q28" s="9"/>
       <c r="R28" s="10"/>
     </row>
-    <row r="29" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
@@ -11073,7 +11089,7 @@
       <c r="Q29" s="9"/>
       <c r="R29" s="10"/>
     </row>
-    <row r="30" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
@@ -11093,7 +11109,7 @@
       <c r="Q30" s="9"/>
       <c r="R30" s="10"/>
     </row>
-    <row r="31" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
@@ -11113,7 +11129,7 @@
       <c r="Q31" s="9"/>
       <c r="R31" s="10"/>
     </row>
-    <row r="32" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
@@ -11133,7 +11149,7 @@
       <c r="Q32" s="9"/>
       <c r="R32" s="10"/>
     </row>
-    <row r="33" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
@@ -11153,7 +11169,7 @@
       <c r="Q33" s="9"/>
       <c r="R33" s="10"/>
     </row>
-    <row r="34" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="2"/>
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
@@ -11173,7 +11189,7 @@
       <c r="Q34" s="9"/>
       <c r="R34" s="10"/>
     </row>
-    <row r="35" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="2"/>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
@@ -11193,7 +11209,7 @@
       <c r="Q35" s="9"/>
       <c r="R35" s="10"/>
     </row>
-    <row r="36" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
@@ -11213,7 +11229,7 @@
       <c r="Q36" s="9"/>
       <c r="R36" s="10"/>
     </row>
-    <row r="37" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="2"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
@@ -11233,7 +11249,7 @@
       <c r="Q37" s="9"/>
       <c r="R37" s="10"/>
     </row>
-    <row r="38" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="2"/>
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
@@ -11253,7 +11269,7 @@
       <c r="Q38" s="9"/>
       <c r="R38" s="10"/>
     </row>
-    <row r="39" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="2"/>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
@@ -11273,7 +11289,7 @@
       <c r="Q39" s="9"/>
       <c r="R39" s="10"/>
     </row>
-    <row r="40" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="2"/>
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
@@ -11293,7 +11309,7 @@
       <c r="Q40" s="9"/>
       <c r="R40" s="10"/>
     </row>
-    <row r="41" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="2"/>
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
@@ -11313,7 +11329,7 @@
       <c r="Q41" s="9"/>
       <c r="R41" s="10"/>
     </row>
-    <row r="42" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="2"/>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
@@ -11333,7 +11349,7 @@
       <c r="Q42" s="9"/>
       <c r="R42" s="10"/>
     </row>
-    <row r="43" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="2"/>
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
@@ -11353,7 +11369,7 @@
       <c r="Q43" s="9"/>
       <c r="R43" s="10"/>
     </row>
-    <row r="44" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="2"/>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
@@ -11373,7 +11389,7 @@
       <c r="Q44" s="9"/>
       <c r="R44" s="10"/>
     </row>
-    <row r="45" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="2"/>
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
@@ -11393,7 +11409,7 @@
       <c r="Q45" s="9"/>
       <c r="R45" s="10"/>
     </row>
-    <row r="46" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="2"/>
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
@@ -11413,7 +11429,7 @@
       <c r="Q46" s="9"/>
       <c r="R46" s="10"/>
     </row>
-    <row r="47" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="2"/>
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
@@ -11433,7 +11449,7 @@
       <c r="Q47" s="9"/>
       <c r="R47" s="10"/>
     </row>
-    <row r="48" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="2"/>
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
@@ -11453,7 +11469,7 @@
       <c r="Q48" s="9"/>
       <c r="R48" s="10"/>
     </row>
-    <row r="49" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="2"/>
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
@@ -11473,7 +11489,7 @@
       <c r="Q49" s="9"/>
       <c r="R49" s="10"/>
     </row>
-    <row r="50" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="2"/>
       <c r="B50" s="8"/>
       <c r="C50" s="9"/>
@@ -11493,7 +11509,7 @@
       <c r="Q50" s="9"/>
       <c r="R50" s="10"/>
     </row>
-    <row r="51" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="2"/>
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
@@ -11513,7 +11529,7 @@
       <c r="Q51" s="9"/>
       <c r="R51" s="10"/>
     </row>
-    <row r="52" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="2"/>
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
@@ -11533,7 +11549,7 @@
       <c r="Q52" s="9"/>
       <c r="R52" s="10"/>
     </row>
-    <row r="53" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="2"/>
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
@@ -11553,7 +11569,7 @@
       <c r="Q53" s="9"/>
       <c r="R53" s="10"/>
     </row>
-    <row r="54" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="2"/>
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
@@ -11573,7 +11589,7 @@
       <c r="Q54" s="9"/>
       <c r="R54" s="10"/>
     </row>
-    <row r="55" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="2"/>
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
@@ -11593,7 +11609,7 @@
       <c r="Q55" s="9"/>
       <c r="R55" s="10"/>
     </row>
-    <row r="56" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="2"/>
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
@@ -11613,7 +11629,7 @@
       <c r="Q56" s="9"/>
       <c r="R56" s="10"/>
     </row>
-    <row r="57" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="2"/>
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
@@ -11633,7 +11649,7 @@
       <c r="Q57" s="9"/>
       <c r="R57" s="10"/>
     </row>
-    <row r="58" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="2"/>
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
@@ -11653,7 +11669,7 @@
       <c r="Q58" s="9"/>
       <c r="R58" s="10"/>
     </row>
-    <row r="59" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="2"/>
       <c r="B59" s="8"/>
       <c r="C59" s="9"/>
@@ -11673,7 +11689,7 @@
       <c r="Q59" s="9"/>
       <c r="R59" s="10"/>
     </row>
-    <row r="60" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="2"/>
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
@@ -11693,7 +11709,7 @@
       <c r="Q60" s="9"/>
       <c r="R60" s="10"/>
     </row>
-    <row r="61" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="2"/>
       <c r="B61" s="8"/>
       <c r="C61" s="9"/>
@@ -11713,7 +11729,7 @@
       <c r="Q61" s="9"/>
       <c r="R61" s="10"/>
     </row>
-    <row r="62" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="2"/>
       <c r="B62" s="8"/>
       <c r="C62" s="9"/>
@@ -11733,7 +11749,7 @@
       <c r="Q62" s="9"/>
       <c r="R62" s="10"/>
     </row>
-    <row r="63" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A63" s="2"/>
       <c r="B63" s="8"/>
       <c r="C63" s="9"/>
@@ -11753,7 +11769,7 @@
       <c r="Q63" s="9"/>
       <c r="R63" s="10"/>
     </row>
-    <row r="64" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="2"/>
       <c r="B64" s="8"/>
       <c r="C64" s="9"/>
@@ -11773,7 +11789,7 @@
       <c r="Q64" s="9"/>
       <c r="R64" s="10"/>
     </row>
-    <row r="65" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="2"/>
       <c r="B65" s="8"/>
       <c r="C65" s="9"/>
@@ -11793,7 +11809,7 @@
       <c r="Q65" s="9"/>
       <c r="R65" s="10"/>
     </row>
-    <row r="66" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="2"/>
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
@@ -11813,7 +11829,7 @@
       <c r="Q66" s="9"/>
       <c r="R66" s="10"/>
     </row>
-    <row r="67" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="2"/>
       <c r="B67" s="8"/>
       <c r="C67" s="9"/>
@@ -11833,7 +11849,7 @@
       <c r="Q67" s="9"/>
       <c r="R67" s="10"/>
     </row>
-    <row r="68" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="2"/>
       <c r="B68" s="8"/>
       <c r="C68" s="9"/>
@@ -11853,7 +11869,7 @@
       <c r="Q68" s="9"/>
       <c r="R68" s="10"/>
     </row>
-    <row r="69" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="2"/>
       <c r="B69" s="8"/>
       <c r="C69" s="9"/>
@@ -11873,7 +11889,7 @@
       <c r="Q69" s="9"/>
       <c r="R69" s="10"/>
     </row>
-    <row r="70" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="2"/>
       <c r="B70" s="8"/>
       <c r="C70" s="9"/>
@@ -11893,7 +11909,7 @@
       <c r="Q70" s="9"/>
       <c r="R70" s="10"/>
     </row>
-    <row r="71" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="2"/>
       <c r="B71" s="8"/>
       <c r="C71" s="9"/>
@@ -11913,7 +11929,7 @@
       <c r="Q71" s="9"/>
       <c r="R71" s="10"/>
     </row>
-    <row r="72" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="2"/>
       <c r="B72" s="8"/>
       <c r="C72" s="9"/>
@@ -11933,7 +11949,7 @@
       <c r="Q72" s="9"/>
       <c r="R72" s="10"/>
     </row>
-    <row r="73" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="2"/>
       <c r="B73" s="8"/>
       <c r="C73" s="9"/>
@@ -11953,7 +11969,7 @@
       <c r="Q73" s="9"/>
       <c r="R73" s="10"/>
     </row>
-    <row r="74" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A74" s="2"/>
       <c r="B74" s="8"/>
       <c r="C74" s="9"/>
@@ -11973,7 +11989,7 @@
       <c r="Q74" s="9"/>
       <c r="R74" s="10"/>
     </row>
-    <row r="75" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="2"/>
       <c r="B75" s="8"/>
       <c r="C75" s="9"/>
@@ -11993,7 +12009,7 @@
       <c r="Q75" s="9"/>
       <c r="R75" s="10"/>
     </row>
-    <row r="76" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A76" s="2"/>
       <c r="B76" s="8"/>
       <c r="C76" s="9"/>
@@ -12013,7 +12029,7 @@
       <c r="Q76" s="9"/>
       <c r="R76" s="10"/>
     </row>
-    <row r="77" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="2"/>
       <c r="B77" s="8"/>
       <c r="C77" s="9"/>
@@ -12033,7 +12049,7 @@
       <c r="Q77" s="9"/>
       <c r="R77" s="10"/>
     </row>
-    <row r="78" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="2"/>
       <c r="B78" s="8"/>
       <c r="C78" s="9"/>
@@ -12053,7 +12069,7 @@
       <c r="Q78" s="9"/>
       <c r="R78" s="10"/>
     </row>
-    <row r="79" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="2"/>
       <c r="B79" s="8"/>
       <c r="C79" s="9"/>
@@ -12073,7 +12089,7 @@
       <c r="Q79" s="9"/>
       <c r="R79" s="10"/>
     </row>
-    <row r="80" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="2"/>
       <c r="B80" s="8"/>
       <c r="C80" s="9"/>
@@ -12093,7 +12109,7 @@
       <c r="Q80" s="9"/>
       <c r="R80" s="10"/>
     </row>
-    <row r="81" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A81" s="2"/>
       <c r="B81" s="8"/>
       <c r="C81" s="9"/>
@@ -12113,7 +12129,7 @@
       <c r="Q81" s="9"/>
       <c r="R81" s="10"/>
     </row>
-    <row r="82" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A82" s="2"/>
       <c r="B82" s="8"/>
       <c r="C82" s="9"/>
@@ -12133,7 +12149,7 @@
       <c r="Q82" s="9"/>
       <c r="R82" s="10"/>
     </row>
-    <row r="83" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="2"/>
       <c r="B83" s="8"/>
       <c r="C83" s="9"/>
@@ -12153,7 +12169,7 @@
       <c r="Q83" s="9"/>
       <c r="R83" s="10"/>
     </row>
-    <row r="84" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="2"/>
       <c r="B84" s="8"/>
       <c r="C84" s="9"/>
@@ -12173,7 +12189,7 @@
       <c r="Q84" s="9"/>
       <c r="R84" s="10"/>
     </row>
-    <row r="85" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A85" s="2"/>
       <c r="B85" s="8"/>
       <c r="C85" s="9"/>
@@ -12193,7 +12209,7 @@
       <c r="Q85" s="9"/>
       <c r="R85" s="10"/>
     </row>
-    <row r="86" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A86" s="2"/>
       <c r="B86" s="8"/>
       <c r="C86" s="9"/>
@@ -12213,7 +12229,7 @@
       <c r="Q86" s="9"/>
       <c r="R86" s="10"/>
     </row>
-    <row r="87" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="2"/>
       <c r="B87" s="8"/>
       <c r="C87" s="9"/>
@@ -12233,7 +12249,7 @@
       <c r="Q87" s="9"/>
       <c r="R87" s="10"/>
     </row>
-    <row r="88" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A88" s="2"/>
       <c r="B88" s="8"/>
       <c r="C88" s="9"/>
@@ -12253,7 +12269,7 @@
       <c r="Q88" s="9"/>
       <c r="R88" s="10"/>
     </row>
-    <row r="89" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A89" s="2"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9"/>
@@ -12273,7 +12289,7 @@
       <c r="Q89" s="9"/>
       <c r="R89" s="10"/>
     </row>
-    <row r="90" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A90" s="2"/>
       <c r="B90" s="8"/>
       <c r="C90" s="9"/>
@@ -12293,7 +12309,7 @@
       <c r="Q90" s="9"/>
       <c r="R90" s="10"/>
     </row>
-    <row r="91" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A91" s="2"/>
       <c r="B91" s="8"/>
       <c r="C91" s="9"/>
@@ -12313,7 +12329,7 @@
       <c r="Q91" s="9"/>
       <c r="R91" s="10"/>
     </row>
-    <row r="92" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A92" s="2"/>
       <c r="B92" s="8"/>
       <c r="C92" s="9"/>
@@ -12333,7 +12349,7 @@
       <c r="Q92" s="9"/>
       <c r="R92" s="10"/>
     </row>
-    <row r="93" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="2"/>
       <c r="B93" s="8"/>
       <c r="C93" s="9"/>
@@ -12353,7 +12369,7 @@
       <c r="Q93" s="9"/>
       <c r="R93" s="10"/>
     </row>
-    <row r="94" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A94" s="2"/>
       <c r="B94" s="8"/>
       <c r="C94" s="9"/>
@@ -12373,7 +12389,7 @@
       <c r="Q94" s="9"/>
       <c r="R94" s="10"/>
     </row>
-    <row r="95" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="2"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9"/>
@@ -12393,7 +12409,7 @@
       <c r="Q95" s="9"/>
       <c r="R95" s="10"/>
     </row>
-    <row r="96" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A96" s="2"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9"/>
@@ -12413,7 +12429,7 @@
       <c r="Q96" s="9"/>
       <c r="R96" s="10"/>
     </row>
-    <row r="97" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="2"/>
       <c r="B97" s="8"/>
       <c r="C97" s="9"/>
@@ -12433,7 +12449,7 @@
       <c r="Q97" s="9"/>
       <c r="R97" s="10"/>
     </row>
-    <row r="98" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A98" s="2"/>
       <c r="B98" s="8"/>
       <c r="C98" s="9"/>
@@ -12453,7 +12469,7 @@
       <c r="Q98" s="9"/>
       <c r="R98" s="10"/>
     </row>
-    <row r="99" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="2"/>
       <c r="B99" s="8"/>
       <c r="C99" s="9"/>
@@ -12473,7 +12489,7 @@
       <c r="Q99" s="9"/>
       <c r="R99" s="10"/>
     </row>
-    <row r="100" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="2"/>
       <c r="B100" s="8"/>
       <c r="C100" s="9"/>
@@ -12493,7 +12509,7 @@
       <c r="Q100" s="9"/>
       <c r="R100" s="10"/>
     </row>
-    <row r="101" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A101" s="2"/>
       <c r="B101" s="8"/>
       <c r="C101" s="9"/>
@@ -12513,7 +12529,7 @@
       <c r="Q101" s="9"/>
       <c r="R101" s="10"/>
     </row>
-    <row r="102" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A102" s="2"/>
       <c r="B102" s="8"/>
       <c r="C102" s="9"/>
@@ -12533,7 +12549,7 @@
       <c r="Q102" s="9"/>
       <c r="R102" s="10"/>
     </row>
-    <row r="103" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A103" s="2"/>
       <c r="B103" s="8"/>
       <c r="C103" s="9"/>
@@ -12553,7 +12569,7 @@
       <c r="Q103" s="9"/>
       <c r="R103" s="10"/>
     </row>
-    <row r="104" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A104" s="2"/>
       <c r="B104" s="8"/>
       <c r="C104" s="9"/>
@@ -12573,7 +12589,7 @@
       <c r="Q104" s="9"/>
       <c r="R104" s="10"/>
     </row>
-    <row r="105" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A105" s="2"/>
       <c r="B105" s="8"/>
       <c r="C105" s="9"/>
@@ -12593,7 +12609,7 @@
       <c r="Q105" s="9"/>
       <c r="R105" s="10"/>
     </row>
-    <row r="106" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A106" s="2"/>
       <c r="B106" s="8"/>
       <c r="C106" s="9"/>
@@ -12613,7 +12629,7 @@
       <c r="Q106" s="9"/>
       <c r="R106" s="10"/>
     </row>
-    <row r="107" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A107" s="2"/>
       <c r="B107" s="8"/>
       <c r="C107" s="9"/>
@@ -12633,7 +12649,7 @@
       <c r="Q107" s="9"/>
       <c r="R107" s="10"/>
     </row>
-    <row r="108" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A108" s="2"/>
       <c r="B108" s="8"/>
       <c r="C108" s="9"/>
@@ -12653,7 +12669,7 @@
       <c r="Q108" s="9"/>
       <c r="R108" s="10"/>
     </row>
-    <row r="109" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A109" s="2"/>
       <c r="B109" s="8"/>
       <c r="C109" s="9"/>
@@ -12673,7 +12689,7 @@
       <c r="Q109" s="9"/>
       <c r="R109" s="10"/>
     </row>
-    <row r="110" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A110" s="2"/>
       <c r="B110" s="8"/>
       <c r="C110" s="9"/>
@@ -12693,7 +12709,7 @@
       <c r="Q110" s="9"/>
       <c r="R110" s="10"/>
     </row>
-    <row r="111" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A111" s="2"/>
       <c r="B111" s="8"/>
       <c r="C111" s="9"/>
@@ -12713,7 +12729,7 @@
       <c r="Q111" s="9"/>
       <c r="R111" s="10"/>
     </row>
-    <row r="112" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A112" s="2"/>
       <c r="B112" s="8"/>
       <c r="C112" s="9"/>
@@ -12733,7 +12749,7 @@
       <c r="Q112" s="9"/>
       <c r="R112" s="10"/>
     </row>
-    <row r="113" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A113" s="2"/>
       <c r="B113" s="8"/>
       <c r="C113" s="9"/>
@@ -12753,7 +12769,7 @@
       <c r="Q113" s="9"/>
       <c r="R113" s="10"/>
     </row>
-    <row r="114" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A114" s="2"/>
       <c r="B114" s="8"/>
       <c r="C114" s="9"/>
@@ -12773,7 +12789,7 @@
       <c r="Q114" s="9"/>
       <c r="R114" s="10"/>
     </row>
-    <row r="115" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A115" s="2"/>
       <c r="B115" s="8"/>
       <c r="C115" s="9"/>
@@ -12793,7 +12809,7 @@
       <c r="Q115" s="9"/>
       <c r="R115" s="10"/>
     </row>
-    <row r="116" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A116" s="2"/>
       <c r="B116" s="8"/>
       <c r="C116" s="9"/>
@@ -12813,7 +12829,7 @@
       <c r="Q116" s="9"/>
       <c r="R116" s="10"/>
     </row>
-    <row r="117" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A117" s="2"/>
       <c r="B117" s="8"/>
       <c r="C117" s="9"/>
@@ -12833,7 +12849,7 @@
       <c r="Q117" s="9"/>
       <c r="R117" s="10"/>
     </row>
-    <row r="118" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A118" s="2"/>
       <c r="B118" s="8"/>
       <c r="C118" s="9"/>
@@ -12853,7 +12869,7 @@
       <c r="Q118" s="9"/>
       <c r="R118" s="10"/>
     </row>
-    <row r="119" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A119" s="2"/>
       <c r="B119" s="8"/>
       <c r="C119" s="9"/>
@@ -12873,7 +12889,7 @@
       <c r="Q119" s="9"/>
       <c r="R119" s="10"/>
     </row>
-    <row r="120" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A120" s="2"/>
       <c r="B120" s="8"/>
       <c r="C120" s="9"/>
@@ -12893,7 +12909,7 @@
       <c r="Q120" s="9"/>
       <c r="R120" s="10"/>
     </row>
-    <row r="121" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A121" s="2"/>
       <c r="B121" s="8"/>
       <c r="C121" s="9"/>
@@ -12913,7 +12929,7 @@
       <c r="Q121" s="9"/>
       <c r="R121" s="10"/>
     </row>
-    <row r="122" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A122" s="2"/>
       <c r="B122" s="8"/>
       <c r="C122" s="9"/>
@@ -12933,7 +12949,7 @@
       <c r="Q122" s="9"/>
       <c r="R122" s="10"/>
     </row>
-    <row r="123" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A123" s="2"/>
       <c r="B123" s="8"/>
       <c r="C123" s="9"/>
@@ -12953,7 +12969,7 @@
       <c r="Q123" s="9"/>
       <c r="R123" s="10"/>
     </row>
-    <row r="124" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A124" s="2"/>
       <c r="B124" s="8"/>
       <c r="C124" s="9"/>
@@ -12973,7 +12989,7 @@
       <c r="Q124" s="9"/>
       <c r="R124" s="10"/>
     </row>
-    <row r="125" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A125" s="2"/>
       <c r="B125" s="8"/>
       <c r="C125" s="9"/>
@@ -12993,7 +13009,7 @@
       <c r="Q125" s="9"/>
       <c r="R125" s="10"/>
     </row>
-    <row r="126" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A126" s="2"/>
       <c r="B126" s="8"/>
       <c r="C126" s="9"/>
@@ -13013,7 +13029,7 @@
       <c r="Q126" s="9"/>
       <c r="R126" s="10"/>
     </row>
-    <row r="127" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A127" s="2"/>
       <c r="B127" s="8"/>
       <c r="C127" s="9"/>
@@ -13033,7 +13049,7 @@
       <c r="Q127" s="9"/>
       <c r="R127" s="10"/>
     </row>
-    <row r="128" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A128" s="2"/>
       <c r="B128" s="8"/>
       <c r="C128" s="9"/>
@@ -13053,7 +13069,7 @@
       <c r="Q128" s="9"/>
       <c r="R128" s="10"/>
     </row>
-    <row r="129" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A129" s="2"/>
       <c r="B129" s="8"/>
       <c r="C129" s="9"/>
@@ -13073,7 +13089,7 @@
       <c r="Q129" s="9"/>
       <c r="R129" s="10"/>
     </row>
-    <row r="130" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A130" s="2"/>
       <c r="B130" s="8"/>
       <c r="C130" s="9"/>
@@ -13093,7 +13109,7 @@
       <c r="Q130" s="9"/>
       <c r="R130" s="10"/>
     </row>
-    <row r="131" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A131" s="2"/>
       <c r="B131" s="8"/>
       <c r="C131" s="9"/>
@@ -13113,7 +13129,7 @@
       <c r="Q131" s="9"/>
       <c r="R131" s="10"/>
     </row>
-    <row r="132" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A132" s="2"/>
       <c r="B132" s="8"/>
       <c r="C132" s="9"/>
@@ -13133,7 +13149,7 @@
       <c r="Q132" s="9"/>
       <c r="R132" s="10"/>
     </row>
-    <row r="133" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A133" s="2"/>
       <c r="B133" s="8"/>
       <c r="C133" s="9"/>
@@ -13153,7 +13169,7 @@
       <c r="Q133" s="9"/>
       <c r="R133" s="10"/>
     </row>
-    <row r="134" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A134" s="2"/>
       <c r="B134" s="8"/>
       <c r="C134" s="9"/>
@@ -13173,7 +13189,7 @@
       <c r="Q134" s="9"/>
       <c r="R134" s="10"/>
     </row>
-    <row r="135" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A135" s="2"/>
       <c r="B135" s="8"/>
       <c r="C135" s="9"/>
@@ -13193,7 +13209,7 @@
       <c r="Q135" s="9"/>
       <c r="R135" s="10"/>
     </row>
-    <row r="136" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A136" s="2"/>
       <c r="B136" s="8"/>
       <c r="C136" s="9"/>
@@ -13213,7 +13229,7 @@
       <c r="Q136" s="9"/>
       <c r="R136" s="10"/>
     </row>
-    <row r="137" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A137" s="2"/>
       <c r="B137" s="8"/>
       <c r="C137" s="9"/>
@@ -13233,7 +13249,7 @@
       <c r="Q137" s="9"/>
       <c r="R137" s="10"/>
     </row>
-    <row r="138" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A138" s="2"/>
       <c r="B138" s="8"/>
       <c r="C138" s="9"/>
@@ -13253,7 +13269,7 @@
       <c r="Q138" s="9"/>
       <c r="R138" s="10"/>
     </row>
-    <row r="139" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A139" s="2"/>
       <c r="B139" s="8"/>
       <c r="C139" s="9"/>
@@ -13273,7 +13289,7 @@
       <c r="Q139" s="9"/>
       <c r="R139" s="10"/>
     </row>
-    <row r="140" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A140" s="2"/>
       <c r="B140" s="8"/>
       <c r="C140" s="9"/>
@@ -13293,7 +13309,7 @@
       <c r="Q140" s="9"/>
       <c r="R140" s="10"/>
     </row>
-    <row r="141" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A141" s="2"/>
       <c r="B141" s="8"/>
       <c r="C141" s="9"/>
@@ -13313,7 +13329,7 @@
       <c r="Q141" s="9"/>
       <c r="R141" s="10"/>
     </row>
-    <row r="142" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A142" s="2"/>
       <c r="B142" s="8"/>
       <c r="C142" s="9"/>
@@ -13333,7 +13349,7 @@
       <c r="Q142" s="9"/>
       <c r="R142" s="10"/>
     </row>
-    <row r="143" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A143" s="2"/>
       <c r="B143" s="8"/>
       <c r="C143" s="9"/>
@@ -13353,7 +13369,7 @@
       <c r="Q143" s="9"/>
       <c r="R143" s="10"/>
     </row>
-    <row r="144" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A144" s="2"/>
       <c r="B144" s="8"/>
       <c r="C144" s="9"/>
@@ -13373,7 +13389,7 @@
       <c r="Q144" s="9"/>
       <c r="R144" s="10"/>
     </row>
-    <row r="145" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A145" s="2"/>
       <c r="B145" s="8"/>
       <c r="C145" s="9"/>
@@ -13393,7 +13409,7 @@
       <c r="Q145" s="9"/>
       <c r="R145" s="10"/>
     </row>
-    <row r="146" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A146" s="2"/>
       <c r="B146" s="8"/>
       <c r="C146" s="9"/>
@@ -13413,7 +13429,7 @@
       <c r="Q146" s="9"/>
       <c r="R146" s="10"/>
     </row>
-    <row r="147" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A147" s="2"/>
       <c r="B147" s="8"/>
       <c r="C147" s="9"/>
@@ -13433,7 +13449,7 @@
       <c r="Q147" s="9"/>
       <c r="R147" s="10"/>
     </row>
-    <row r="148" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A148" s="2"/>
       <c r="B148" s="8"/>
       <c r="C148" s="9"/>
@@ -13453,7 +13469,7 @@
       <c r="Q148" s="9"/>
       <c r="R148" s="10"/>
     </row>
-    <row r="149" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A149" s="2"/>
       <c r="B149" s="8"/>
       <c r="C149" s="9"/>
@@ -13473,7 +13489,7 @@
       <c r="Q149" s="9"/>
       <c r="R149" s="10"/>
     </row>
-    <row r="150" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A150" s="2"/>
       <c r="B150" s="8"/>
       <c r="C150" s="9"/>
@@ -13493,7 +13509,7 @@
       <c r="Q150" s="9"/>
       <c r="R150" s="10"/>
     </row>
-    <row r="151" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A151" s="2"/>
       <c r="B151" s="8"/>
       <c r="C151" s="9"/>
@@ -13513,7 +13529,7 @@
       <c r="Q151" s="9"/>
       <c r="R151" s="10"/>
     </row>
-    <row r="152" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A152" s="2"/>
       <c r="B152" s="8"/>
       <c r="C152" s="9"/>
@@ -13533,7 +13549,7 @@
       <c r="Q152" s="9"/>
       <c r="R152" s="10"/>
     </row>
-    <row r="153" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A153" s="2"/>
       <c r="B153" s="8"/>
       <c r="C153" s="9"/>
@@ -13553,7 +13569,7 @@
       <c r="Q153" s="9"/>
       <c r="R153" s="10"/>
     </row>
-    <row r="154" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A154" s="2"/>
       <c r="B154" s="8"/>
       <c r="C154" s="9"/>
@@ -13573,7 +13589,7 @@
       <c r="Q154" s="9"/>
       <c r="R154" s="10"/>
     </row>
-    <row r="155" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A155" s="2"/>
       <c r="B155" s="8"/>
       <c r="C155" s="9"/>
@@ -13593,7 +13609,7 @@
       <c r="Q155" s="9"/>
       <c r="R155" s="10"/>
     </row>
-    <row r="156" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A156" s="2"/>
       <c r="B156" s="8"/>
       <c r="C156" s="9"/>
@@ -13613,7 +13629,7 @@
       <c r="Q156" s="9"/>
       <c r="R156" s="10"/>
     </row>
-    <row r="157" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A157" s="2"/>
       <c r="B157" s="8"/>
       <c r="C157" s="9"/>
@@ -13633,7 +13649,7 @@
       <c r="Q157" s="9"/>
       <c r="R157" s="10"/>
     </row>
-    <row r="158" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A158" s="2"/>
       <c r="B158" s="8"/>
       <c r="C158" s="9"/>
@@ -13653,7 +13669,7 @@
       <c r="Q158" s="9"/>
       <c r="R158" s="10"/>
     </row>
-    <row r="159" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A159" s="2"/>
       <c r="B159" s="8"/>
       <c r="C159" s="9"/>
@@ -13673,7 +13689,7 @@
       <c r="Q159" s="9"/>
       <c r="R159" s="10"/>
     </row>
-    <row r="160" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A160" s="2"/>
       <c r="B160" s="8"/>
       <c r="C160" s="9"/>
@@ -13693,7 +13709,7 @@
       <c r="Q160" s="9"/>
       <c r="R160" s="10"/>
     </row>
-    <row r="161" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A161" s="2"/>
       <c r="B161" s="8"/>
       <c r="C161" s="9"/>
@@ -13713,7 +13729,7 @@
       <c r="Q161" s="9"/>
       <c r="R161" s="10"/>
     </row>
-    <row r="162" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A162" s="2"/>
       <c r="B162" s="8"/>
       <c r="C162" s="9"/>
@@ -13733,7 +13749,7 @@
       <c r="Q162" s="9"/>
       <c r="R162" s="10"/>
     </row>
-    <row r="163" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A163" s="2"/>
       <c r="B163" s="8"/>
       <c r="C163" s="9"/>
@@ -13753,7 +13769,7 @@
       <c r="Q163" s="9"/>
       <c r="R163" s="10"/>
     </row>
-    <row r="164" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A164" s="2"/>
       <c r="B164" s="8"/>
       <c r="C164" s="9"/>
@@ -13773,7 +13789,7 @@
       <c r="Q164" s="9"/>
       <c r="R164" s="10"/>
     </row>
-    <row r="165" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A165" s="2"/>
       <c r="B165" s="8"/>
       <c r="C165" s="9"/>
@@ -13793,7 +13809,7 @@
       <c r="Q165" s="9"/>
       <c r="R165" s="10"/>
     </row>
-    <row r="166" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A166" s="2"/>
       <c r="B166" s="8"/>
       <c r="C166" s="9"/>
@@ -13813,7 +13829,7 @@
       <c r="Q166" s="9"/>
       <c r="R166" s="10"/>
     </row>
-    <row r="167" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A167" s="2"/>
       <c r="B167" s="8"/>
       <c r="C167" s="9"/>
@@ -13833,7 +13849,7 @@
       <c r="Q167" s="9"/>
       <c r="R167" s="10"/>
     </row>
-    <row r="168" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A168" s="2"/>
       <c r="B168" s="8"/>
       <c r="C168" s="9"/>
@@ -13853,7 +13869,7 @@
       <c r="Q168" s="9"/>
       <c r="R168" s="10"/>
     </row>
-    <row r="169" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A169" s="2"/>
       <c r="B169" s="8"/>
       <c r="C169" s="9"/>
@@ -13873,7 +13889,7 @@
       <c r="Q169" s="9"/>
       <c r="R169" s="10"/>
     </row>
-    <row r="170" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A170" s="2"/>
       <c r="B170" s="8"/>
       <c r="C170" s="9"/>
@@ -13893,7 +13909,7 @@
       <c r="Q170" s="9"/>
       <c r="R170" s="10"/>
     </row>
-    <row r="171" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A171" s="2"/>
       <c r="B171" s="8"/>
       <c r="C171" s="9"/>
@@ -13913,7 +13929,7 @@
       <c r="Q171" s="9"/>
       <c r="R171" s="10"/>
     </row>
-    <row r="172" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A172" s="2"/>
       <c r="B172" s="8"/>
       <c r="C172" s="9"/>
@@ -13933,7 +13949,7 @@
       <c r="Q172" s="9"/>
       <c r="R172" s="10"/>
     </row>
-    <row r="173" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A173" s="2"/>
       <c r="B173" s="8"/>
       <c r="C173" s="9"/>
@@ -13953,7 +13969,7 @@
       <c r="Q173" s="9"/>
       <c r="R173" s="10"/>
     </row>
-    <row r="174" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A174" s="2"/>
       <c r="B174" s="8"/>
       <c r="C174" s="9"/>
@@ -13973,7 +13989,7 @@
       <c r="Q174" s="9"/>
       <c r="R174" s="10"/>
     </row>
-    <row r="175" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A175" s="2"/>
       <c r="B175" s="8"/>
       <c r="C175" s="9"/>
@@ -13993,7 +14009,7 @@
       <c r="Q175" s="9"/>
       <c r="R175" s="10"/>
     </row>
-    <row r="176" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A176" s="2"/>
       <c r="B176" s="8"/>
       <c r="C176" s="9"/>
@@ -14013,7 +14029,7 @@
       <c r="Q176" s="9"/>
       <c r="R176" s="10"/>
     </row>
-    <row r="177" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A177" s="2"/>
       <c r="B177" s="8"/>
       <c r="C177" s="9"/>
@@ -14033,7 +14049,7 @@
       <c r="Q177" s="9"/>
       <c r="R177" s="10"/>
     </row>
-    <row r="178" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A178" s="2"/>
       <c r="B178" s="8"/>
       <c r="C178" s="9"/>
@@ -14053,7 +14069,7 @@
       <c r="Q178" s="9"/>
       <c r="R178" s="10"/>
     </row>
-    <row r="179" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A179" s="2"/>
       <c r="B179" s="8"/>
       <c r="C179" s="9"/>
@@ -14073,7 +14089,7 @@
       <c r="Q179" s="9"/>
       <c r="R179" s="10"/>
     </row>
-    <row r="180" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A180" s="2"/>
       <c r="B180" s="8"/>
       <c r="C180" s="9"/>
@@ -14093,7 +14109,7 @@
       <c r="Q180" s="9"/>
       <c r="R180" s="10"/>
     </row>
-    <row r="181" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A181" s="2"/>
       <c r="B181" s="8"/>
       <c r="C181" s="9"/>
@@ -14113,7 +14129,7 @@
       <c r="Q181" s="9"/>
       <c r="R181" s="10"/>
     </row>
-    <row r="182" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A182" s="2"/>
       <c r="B182" s="8"/>
       <c r="C182" s="9"/>
@@ -14133,7 +14149,7 @@
       <c r="Q182" s="9"/>
       <c r="R182" s="10"/>
     </row>
-    <row r="183" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A183" s="2"/>
       <c r="B183" s="8"/>
       <c r="C183" s="9"/>
@@ -14153,7 +14169,7 @@
       <c r="Q183" s="9"/>
       <c r="R183" s="10"/>
     </row>
-    <row r="184" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A184" s="2"/>
       <c r="B184" s="8"/>
       <c r="C184" s="9"/>
@@ -14173,7 +14189,7 @@
       <c r="Q184" s="9"/>
       <c r="R184" s="10"/>
     </row>
-    <row r="185" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A185" s="2"/>
       <c r="B185" s="8"/>
       <c r="C185" s="9"/>
@@ -14193,7 +14209,7 @@
       <c r="Q185" s="9"/>
       <c r="R185" s="10"/>
     </row>
-    <row r="186" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A186" s="2"/>
       <c r="B186" s="8"/>
       <c r="C186" s="9"/>
@@ -14213,7 +14229,7 @@
       <c r="Q186" s="9"/>
       <c r="R186" s="10"/>
     </row>
-    <row r="187" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A187" s="2"/>
       <c r="B187" s="8"/>
       <c r="C187" s="9"/>
@@ -14233,7 +14249,7 @@
       <c r="Q187" s="9"/>
       <c r="R187" s="10"/>
     </row>
-    <row r="188" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A188" s="2"/>
       <c r="B188" s="8"/>
       <c r="C188" s="9"/>
@@ -14253,7 +14269,7 @@
       <c r="Q188" s="9"/>
       <c r="R188" s="10"/>
     </row>
-    <row r="189" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A189" s="2"/>
       <c r="B189" s="8"/>
       <c r="C189" s="9"/>
@@ -14273,7 +14289,7 @@
       <c r="Q189" s="9"/>
       <c r="R189" s="10"/>
     </row>
-    <row r="190" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A190" s="2"/>
       <c r="B190" s="8"/>
       <c r="C190" s="9"/>
@@ -14293,7 +14309,7 @@
       <c r="Q190" s="9"/>
       <c r="R190" s="10"/>
     </row>
-    <row r="191" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A191" s="2"/>
       <c r="B191" s="8"/>
       <c r="C191" s="9"/>
@@ -14313,7 +14329,7 @@
       <c r="Q191" s="9"/>
       <c r="R191" s="10"/>
     </row>
-    <row r="192" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A192" s="2"/>
       <c r="B192" s="8"/>
       <c r="C192" s="9"/>
@@ -14333,7 +14349,7 @@
       <c r="Q192" s="9"/>
       <c r="R192" s="10"/>
     </row>
-    <row r="193" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A193" s="2"/>
       <c r="B193" s="8"/>
       <c r="C193" s="9"/>
@@ -14353,7 +14369,7 @@
       <c r="Q193" s="9"/>
       <c r="R193" s="10"/>
     </row>
-    <row r="194" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A194" s="2"/>
       <c r="B194" s="8"/>
       <c r="C194" s="9"/>
@@ -14373,7 +14389,7 @@
       <c r="Q194" s="9"/>
       <c r="R194" s="10"/>
     </row>
-    <row r="195" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A195" s="2"/>
       <c r="B195" s="8"/>
       <c r="C195" s="9"/>
@@ -14393,7 +14409,7 @@
       <c r="Q195" s="9"/>
       <c r="R195" s="10"/>
     </row>
-    <row r="196" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A196" s="2"/>
       <c r="B196" s="8"/>
       <c r="C196" s="9"/>
@@ -14413,7 +14429,7 @@
       <c r="Q196" s="9"/>
       <c r="R196" s="10"/>
     </row>
-    <row r="197" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A197" s="2"/>
       <c r="B197" s="8"/>
       <c r="C197" s="9"/>
@@ -14433,7 +14449,7 @@
       <c r="Q197" s="9"/>
       <c r="R197" s="10"/>
     </row>
-    <row r="198" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A198" s="2"/>
       <c r="B198" s="8"/>
       <c r="C198" s="9"/>
@@ -14453,7 +14469,7 @@
       <c r="Q198" s="9"/>
       <c r="R198" s="10"/>
     </row>
-    <row r="199" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A199" s="2"/>
       <c r="B199" s="8"/>
       <c r="C199" s="9"/>
@@ -14473,7 +14489,7 @@
       <c r="Q199" s="9"/>
       <c r="R199" s="10"/>
     </row>
-    <row r="200" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A200" s="2"/>
       <c r="B200" s="8"/>
       <c r="C200" s="9"/>
@@ -14493,7 +14509,7 @@
       <c r="Q200" s="9"/>
       <c r="R200" s="10"/>
     </row>
-    <row r="201" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A201" s="2"/>
       <c r="B201" s="8"/>
       <c r="C201" s="9"/>
@@ -14513,7 +14529,7 @@
       <c r="Q201" s="9"/>
       <c r="R201" s="10"/>
     </row>
-    <row r="202" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A202" s="2"/>
       <c r="B202" s="8"/>
       <c r="C202" s="9"/>
@@ -14533,7 +14549,7 @@
       <c r="Q202" s="9"/>
       <c r="R202" s="10"/>
     </row>
-    <row r="203" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A203" s="2"/>
       <c r="B203" s="8"/>
       <c r="C203" s="9"/>
@@ -14553,7 +14569,7 @@
       <c r="Q203" s="9"/>
       <c r="R203" s="10"/>
     </row>
-    <row r="204" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A204" s="2"/>
       <c r="B204" s="8"/>
       <c r="C204" s="9"/>
@@ -14573,7 +14589,7 @@
       <c r="Q204" s="9"/>
       <c r="R204" s="10"/>
     </row>
-    <row r="205" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A205" s="2"/>
       <c r="B205" s="8"/>
       <c r="C205" s="9"/>
@@ -14593,7 +14609,7 @@
       <c r="Q205" s="9"/>
       <c r="R205" s="10"/>
     </row>
-    <row r="206" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A206" s="2"/>
       <c r="B206" s="8"/>
       <c r="C206" s="9"/>
@@ -14613,7 +14629,7 @@
       <c r="Q206" s="9"/>
       <c r="R206" s="10"/>
     </row>
-    <row r="207" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A207" s="2"/>
       <c r="B207" s="8"/>
       <c r="C207" s="9"/>
@@ -14633,7 +14649,7 @@
       <c r="Q207" s="9"/>
       <c r="R207" s="10"/>
     </row>
-    <row r="208" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A208" s="2"/>
       <c r="B208" s="8"/>
       <c r="C208" s="9"/>
@@ -14653,7 +14669,7 @@
       <c r="Q208" s="9"/>
       <c r="R208" s="10"/>
     </row>
-    <row r="209" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A209" s="2"/>
       <c r="B209" s="8"/>
       <c r="C209" s="9"/>
@@ -14673,7 +14689,7 @@
       <c r="Q209" s="9"/>
       <c r="R209" s="10"/>
     </row>
-    <row r="210" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A210" s="2"/>
       <c r="B210" s="8"/>
       <c r="C210" s="9"/>
@@ -14693,7 +14709,7 @@
       <c r="Q210" s="9"/>
       <c r="R210" s="10"/>
     </row>
-    <row r="211" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A211" s="2"/>
       <c r="B211" s="8"/>
       <c r="C211" s="9"/>
@@ -14713,7 +14729,7 @@
       <c r="Q211" s="9"/>
       <c r="R211" s="10"/>
     </row>
-    <row r="212" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A212" s="2"/>
       <c r="B212" s="8"/>
       <c r="C212" s="9"/>
@@ -14733,7 +14749,7 @@
       <c r="Q212" s="9"/>
       <c r="R212" s="10"/>
     </row>
-    <row r="213" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A213" s="2"/>
       <c r="B213" s="8"/>
       <c r="C213" s="9"/>
@@ -14753,7 +14769,7 @@
       <c r="Q213" s="9"/>
       <c r="R213" s="10"/>
     </row>
-    <row r="214" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A214" s="2"/>
       <c r="B214" s="8"/>
       <c r="C214" s="9"/>
@@ -14773,7 +14789,7 @@
       <c r="Q214" s="9"/>
       <c r="R214" s="10"/>
     </row>
-    <row r="215" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A215" s="2"/>
       <c r="B215" s="8"/>
       <c r="C215" s="9"/>
@@ -14793,7 +14809,7 @@
       <c r="Q215" s="9"/>
       <c r="R215" s="10"/>
     </row>
-    <row r="216" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A216" s="2"/>
       <c r="B216" s="8"/>
       <c r="C216" s="9"/>
@@ -14813,7 +14829,7 @@
       <c r="Q216" s="9"/>
       <c r="R216" s="10"/>
     </row>
-    <row r="217" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A217" s="2"/>
       <c r="B217" s="8"/>
       <c r="C217" s="9"/>
@@ -14833,7 +14849,7 @@
       <c r="Q217" s="9"/>
       <c r="R217" s="10"/>
     </row>
-    <row r="218" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A218" s="2"/>
       <c r="B218" s="8"/>
       <c r="C218" s="9"/>
@@ -14853,7 +14869,7 @@
       <c r="Q218" s="9"/>
       <c r="R218" s="10"/>
     </row>
-    <row r="219" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A219" s="2"/>
       <c r="B219" s="8"/>
       <c r="C219" s="9"/>
@@ -14873,7 +14889,7 @@
       <c r="Q219" s="9"/>
       <c r="R219" s="10"/>
     </row>
-    <row r="220" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A220" s="2"/>
       <c r="B220" s="8"/>
       <c r="C220" s="9"/>
@@ -14893,7 +14909,7 @@
       <c r="Q220" s="9"/>
       <c r="R220" s="10"/>
     </row>
-    <row r="221" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A221" s="2"/>
       <c r="B221" s="8"/>
       <c r="C221" s="9"/>
@@ -14913,7 +14929,7 @@
       <c r="Q221" s="9"/>
       <c r="R221" s="10"/>
     </row>
-    <row r="222" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A222" s="2"/>
       <c r="B222" s="8"/>
       <c r="C222" s="9"/>
@@ -14933,7 +14949,7 @@
       <c r="Q222" s="9"/>
       <c r="R222" s="10"/>
     </row>
-    <row r="223" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A223" s="2"/>
       <c r="B223" s="8"/>
       <c r="C223" s="9"/>
@@ -14953,7 +14969,7 @@
       <c r="Q223" s="9"/>
       <c r="R223" s="10"/>
     </row>
-    <row r="224" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A224" s="2"/>
       <c r="B224" s="8"/>
       <c r="C224" s="9"/>
@@ -14973,7 +14989,7 @@
       <c r="Q224" s="9"/>
       <c r="R224" s="10"/>
     </row>
-    <row r="225" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A225" s="2"/>
       <c r="B225" s="8"/>
       <c r="C225" s="9"/>
@@ -14993,7 +15009,7 @@
       <c r="Q225" s="9"/>
       <c r="R225" s="10"/>
     </row>
-    <row r="226" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A226" s="2"/>
       <c r="B226" s="8"/>
       <c r="C226" s="9"/>
@@ -15013,7 +15029,7 @@
       <c r="Q226" s="9"/>
       <c r="R226" s="10"/>
     </row>
-    <row r="227" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A227" s="2"/>
       <c r="B227" s="8"/>
       <c r="C227" s="9"/>
@@ -15033,7 +15049,7 @@
       <c r="Q227" s="9"/>
       <c r="R227" s="10"/>
     </row>
-    <row r="228" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A228" s="2"/>
       <c r="B228" s="8"/>
       <c r="C228" s="9"/>
@@ -15053,7 +15069,7 @@
       <c r="Q228" s="9"/>
       <c r="R228" s="10"/>
     </row>
-    <row r="229" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A229" s="2"/>
       <c r="B229" s="8"/>
       <c r="C229" s="9"/>
@@ -15073,7 +15089,7 @@
       <c r="Q229" s="9"/>
       <c r="R229" s="10"/>
     </row>
-    <row r="230" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A230" s="2"/>
       <c r="B230" s="8"/>
       <c r="C230" s="9"/>
@@ -15093,7 +15109,7 @@
       <c r="Q230" s="9"/>
       <c r="R230" s="10"/>
     </row>
-    <row r="231" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A231" s="2"/>
       <c r="B231" s="8"/>
       <c r="C231" s="9"/>
@@ -15113,7 +15129,7 @@
       <c r="Q231" s="9"/>
       <c r="R231" s="10"/>
     </row>
-    <row r="232" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A232" s="2"/>
       <c r="B232" s="8"/>
       <c r="C232" s="9"/>
@@ -15133,7 +15149,7 @@
       <c r="Q232" s="9"/>
       <c r="R232" s="10"/>
     </row>
-    <row r="233" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A233" s="2"/>
       <c r="B233" s="8"/>
       <c r="C233" s="9"/>
@@ -15153,7 +15169,7 @@
       <c r="Q233" s="9"/>
       <c r="R233" s="10"/>
     </row>
-    <row r="234" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A234" s="2"/>
       <c r="B234" s="8"/>
       <c r="C234" s="9"/>
@@ -15173,7 +15189,7 @@
       <c r="Q234" s="9"/>
       <c r="R234" s="10"/>
     </row>
-    <row r="235" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A235" s="2"/>
       <c r="B235" s="8"/>
       <c r="C235" s="9"/>
@@ -15193,7 +15209,7 @@
       <c r="Q235" s="9"/>
       <c r="R235" s="10"/>
     </row>
-    <row r="236" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A236" s="2"/>
       <c r="B236" s="8"/>
       <c r="C236" s="9"/>
@@ -15213,7 +15229,7 @@
       <c r="Q236" s="9"/>
       <c r="R236" s="10"/>
     </row>
-    <row r="237" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A237" s="2"/>
       <c r="B237" s="8"/>
       <c r="C237" s="9"/>
@@ -15233,7 +15249,7 @@
       <c r="Q237" s="9"/>
       <c r="R237" s="10"/>
     </row>
-    <row r="238" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A238" s="2"/>
       <c r="B238" s="8"/>
       <c r="C238" s="9"/>
@@ -15253,7 +15269,7 @@
       <c r="Q238" s="9"/>
       <c r="R238" s="10"/>
     </row>
-    <row r="239" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A239" s="2"/>
       <c r="B239" s="8"/>
       <c r="C239" s="9"/>
@@ -15273,7 +15289,7 @@
       <c r="Q239" s="9"/>
       <c r="R239" s="10"/>
     </row>
-    <row r="240" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A240" s="2"/>
       <c r="B240" s="8"/>
       <c r="C240" s="9"/>
@@ -15293,7 +15309,7 @@
       <c r="Q240" s="9"/>
       <c r="R240" s="10"/>
     </row>
-    <row r="241" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A241" s="2"/>
       <c r="B241" s="8"/>
       <c r="C241" s="9"/>
@@ -15313,7 +15329,7 @@
       <c r="Q241" s="9"/>
       <c r="R241" s="10"/>
     </row>
-    <row r="242" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A242" s="2"/>
       <c r="B242" s="8"/>
       <c r="C242" s="9"/>
@@ -15333,7 +15349,7 @@
       <c r="Q242" s="9"/>
       <c r="R242" s="10"/>
     </row>
-    <row r="243" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A243" s="2"/>
       <c r="B243" s="8"/>
       <c r="C243" s="9"/>
@@ -15353,7 +15369,7 @@
       <c r="Q243" s="9"/>
       <c r="R243" s="10"/>
     </row>
-    <row r="244" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A244" s="2"/>
       <c r="B244" s="8"/>
       <c r="C244" s="9"/>
@@ -15373,7 +15389,7 @@
       <c r="Q244" s="9"/>
       <c r="R244" s="10"/>
     </row>
-    <row r="245" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A245" s="2"/>
       <c r="B245" s="8"/>
       <c r="C245" s="9"/>
@@ -15393,7 +15409,7 @@
       <c r="Q245" s="9"/>
       <c r="R245" s="10"/>
     </row>
-    <row r="246" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A246" s="2"/>
       <c r="B246" s="8"/>
       <c r="C246" s="9"/>
@@ -15413,7 +15429,7 @@
       <c r="Q246" s="9"/>
       <c r="R246" s="10"/>
     </row>
-    <row r="247" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A247" s="2"/>
       <c r="B247" s="8"/>
       <c r="C247" s="9"/>
@@ -15433,7 +15449,7 @@
       <c r="Q247" s="9"/>
       <c r="R247" s="10"/>
     </row>
-    <row r="248" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A248" s="2"/>
       <c r="B248" s="8"/>
       <c r="C248" s="9"/>
@@ -15453,7 +15469,7 @@
       <c r="Q248" s="9"/>
       <c r="R248" s="10"/>
     </row>
-    <row r="249" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A249" s="2"/>
       <c r="B249" s="8"/>
       <c r="C249" s="9"/>
@@ -15473,7 +15489,7 @@
       <c r="Q249" s="9"/>
       <c r="R249" s="10"/>
     </row>
-    <row r="250" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A250" s="2"/>
       <c r="B250" s="8"/>
       <c r="C250" s="9"/>
@@ -15493,7 +15509,7 @@
       <c r="Q250" s="9"/>
       <c r="R250" s="10"/>
     </row>
-    <row r="251" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A251" s="2"/>
       <c r="B251" s="8"/>
       <c r="C251" s="9"/>
@@ -15513,7 +15529,7 @@
       <c r="Q251" s="9"/>
       <c r="R251" s="10"/>
     </row>
-    <row r="252" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A252" s="2"/>
       <c r="B252" s="8"/>
       <c r="C252" s="9"/>
@@ -15533,7 +15549,7 @@
       <c r="Q252" s="9"/>
       <c r="R252" s="10"/>
     </row>
-    <row r="253" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A253" s="2"/>
       <c r="B253" s="8"/>
       <c r="C253" s="9"/>
@@ -15553,7 +15569,7 @@
       <c r="Q253" s="9"/>
       <c r="R253" s="10"/>
     </row>
-    <row r="254" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A254" s="2"/>
       <c r="B254" s="8"/>
       <c r="C254" s="9"/>
@@ -15573,7 +15589,7 @@
       <c r="Q254" s="9"/>
       <c r="R254" s="10"/>
     </row>
-    <row r="255" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A255" s="2"/>
       <c r="B255" s="8"/>
       <c r="C255" s="9"/>
@@ -15593,7 +15609,7 @@
       <c r="Q255" s="9"/>
       <c r="R255" s="10"/>
     </row>
-    <row r="256" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A256" s="2"/>
       <c r="B256" s="8"/>
       <c r="C256" s="9"/>
@@ -15613,7 +15629,7 @@
       <c r="Q256" s="9"/>
       <c r="R256" s="10"/>
     </row>
-    <row r="257" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A257" s="2"/>
       <c r="B257" s="8"/>
       <c r="C257" s="9"/>
@@ -15633,7 +15649,7 @@
       <c r="Q257" s="9"/>
       <c r="R257" s="10"/>
     </row>
-    <row r="258" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A258" s="2"/>
       <c r="B258" s="8"/>
       <c r="C258" s="9"/>
@@ -15653,7 +15669,7 @@
       <c r="Q258" s="9"/>
       <c r="R258" s="10"/>
     </row>
-    <row r="259" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A259" s="2"/>
       <c r="B259" s="8"/>
       <c r="C259" s="9"/>
@@ -15673,7 +15689,7 @@
       <c r="Q259" s="9"/>
       <c r="R259" s="10"/>
     </row>
-    <row r="260" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A260" s="2"/>
       <c r="B260" s="8"/>
       <c r="C260" s="9"/>
@@ -15693,7 +15709,7 @@
       <c r="Q260" s="9"/>
       <c r="R260" s="10"/>
     </row>
-    <row r="261" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A261" s="2"/>
       <c r="B261" s="8"/>
       <c r="C261" s="9"/>
@@ -15713,7 +15729,7 @@
       <c r="Q261" s="9"/>
       <c r="R261" s="10"/>
     </row>
-    <row r="262" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A262" s="2"/>
       <c r="B262" s="8"/>
       <c r="C262" s="9"/>
@@ -15733,7 +15749,7 @@
       <c r="Q262" s="9"/>
       <c r="R262" s="10"/>
     </row>
-    <row r="263" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A263" s="2"/>
       <c r="B263" s="8"/>
       <c r="C263" s="9"/>
@@ -15753,7 +15769,7 @@
       <c r="Q263" s="9"/>
       <c r="R263" s="10"/>
     </row>
-    <row r="264" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A264" s="2"/>
       <c r="B264" s="8"/>
       <c r="C264" s="9"/>
@@ -15773,7 +15789,7 @@
       <c r="Q264" s="9"/>
       <c r="R264" s="10"/>
     </row>
-    <row r="265" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A265" s="2"/>
       <c r="B265" s="8"/>
       <c r="C265" s="9"/>
@@ -15793,7 +15809,7 @@
       <c r="Q265" s="9"/>
       <c r="R265" s="10"/>
     </row>
-    <row r="266" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A266" s="2"/>
       <c r="B266" s="8"/>
       <c r="C266" s="9"/>
@@ -15813,7 +15829,7 @@
       <c r="Q266" s="9"/>
       <c r="R266" s="10"/>
     </row>
-    <row r="267" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A267" s="2"/>
       <c r="B267" s="8"/>
       <c r="C267" s="9"/>
@@ -15833,7 +15849,7 @@
       <c r="Q267" s="9"/>
       <c r="R267" s="10"/>
     </row>
-    <row r="268" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A268" s="2"/>
       <c r="B268" s="8"/>
       <c r="C268" s="9"/>
@@ -15853,7 +15869,7 @@
       <c r="Q268" s="9"/>
       <c r="R268" s="10"/>
     </row>
-    <row r="269" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A269" s="2"/>
       <c r="B269" s="8"/>
       <c r="C269" s="9"/>
@@ -15873,7 +15889,7 @@
       <c r="Q269" s="9"/>
       <c r="R269" s="10"/>
     </row>
-    <row r="270" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A270" s="2"/>
       <c r="B270" s="8"/>
       <c r="C270" s="9"/>
@@ -15893,7 +15909,7 @@
       <c r="Q270" s="9"/>
       <c r="R270" s="10"/>
     </row>
-    <row r="271" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A271" s="2"/>
       <c r="B271" s="8"/>
       <c r="C271" s="9"/>
@@ -15913,7 +15929,7 @@
       <c r="Q271" s="9"/>
       <c r="R271" s="10"/>
     </row>
-    <row r="272" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A272" s="2"/>
       <c r="B272" s="8"/>
       <c r="C272" s="9"/>
@@ -15933,7 +15949,7 @@
       <c r="Q272" s="9"/>
       <c r="R272" s="10"/>
     </row>
-    <row r="273" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A273" s="2"/>
       <c r="B273" s="8"/>
       <c r="C273" s="9"/>
@@ -15953,7 +15969,7 @@
       <c r="Q273" s="9"/>
       <c r="R273" s="10"/>
     </row>
-    <row r="274" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A274" s="2"/>
       <c r="B274" s="8"/>
       <c r="C274" s="9"/>
@@ -15973,7 +15989,7 @@
       <c r="Q274" s="9"/>
       <c r="R274" s="10"/>
     </row>
-    <row r="275" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A275" s="2"/>
       <c r="B275" s="8"/>
       <c r="C275" s="9"/>
@@ -15993,7 +16009,7 @@
       <c r="Q275" s="9"/>
       <c r="R275" s="10"/>
     </row>
-    <row r="276" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A276" s="2"/>
       <c r="B276" s="8"/>
       <c r="C276" s="9"/>
@@ -16013,7 +16029,7 @@
       <c r="Q276" s="9"/>
       <c r="R276" s="10"/>
     </row>
-    <row r="277" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A277" s="2"/>
       <c r="B277" s="8"/>
       <c r="C277" s="9"/>
@@ -16033,7 +16049,7 @@
       <c r="Q277" s="9"/>
       <c r="R277" s="10"/>
     </row>
-    <row r="278" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A278" s="2"/>
       <c r="B278" s="8"/>
       <c r="C278" s="9"/>
@@ -16053,7 +16069,7 @@
       <c r="Q278" s="9"/>
       <c r="R278" s="10"/>
     </row>
-    <row r="279" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A279" s="2"/>
       <c r="B279" s="8"/>
       <c r="C279" s="9"/>
@@ -16073,7 +16089,7 @@
       <c r="Q279" s="9"/>
       <c r="R279" s="10"/>
     </row>
-    <row r="280" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A280" s="2"/>
       <c r="B280" s="8"/>
       <c r="C280" s="9"/>
@@ -16093,7 +16109,7 @@
       <c r="Q280" s="9"/>
       <c r="R280" s="10"/>
     </row>
-    <row r="281" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A281" s="2"/>
       <c r="B281" s="8"/>
       <c r="C281" s="9"/>
@@ -16113,7 +16129,7 @@
       <c r="Q281" s="9"/>
       <c r="R281" s="10"/>
     </row>
-    <row r="282" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A282" s="2"/>
       <c r="B282" s="8"/>
       <c r="C282" s="9"/>
@@ -16133,7 +16149,7 @@
       <c r="Q282" s="9"/>
       <c r="R282" s="10"/>
     </row>
-    <row r="283" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A283" s="2"/>
       <c r="B283" s="8"/>
       <c r="C283" s="9"/>
@@ -16153,7 +16169,7 @@
       <c r="Q283" s="9"/>
       <c r="R283" s="10"/>
     </row>
-    <row r="284" spans="1:18" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A284" s="2"/>
       <c r="B284" s="8"/>
       <c r="C284" s="9"/>
@@ -16173,7 +16189,7 @@
       <c r="Q284" s="9"/>
       <c r="R284" s="10"/>
     </row>
-    <row r="285" spans="1:18" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="285" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="280">
     <mergeCell ref="A1:R3"/>
